--- a/00_Document/고양이가만듦_WBS.xlsx
+++ b/00_Document/고양이가만듦_WBS.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlghk\Desktop\2021_2_CapstoneDesign-main\2021_2_CapstoneDesign-main\00_문서 양식\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\21-02 CapstoneDesign\21-02-CapstoneDesign\00_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED11D2B8-23C7-4CCD-AEC5-037442837780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F331B04D-B706-429B-ADF1-B666B70DE9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WBS" sheetId="1" r:id="rId1"/>
-    <sheet name="IA" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
+    <sheet name="WBS" sheetId="1" r:id="rId2"/>
+    <sheet name="IA" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +444,26 @@
   </si>
   <si>
     <t>리스크 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crawling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,7 +1000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1178,99 +1199,171 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="12" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,72 +1375,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="12" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1715,14 +1742,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08F6DB7-E64A-434C-B30D-10768A54CFD9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CV41"/>
+  <dimension ref="A1:CV45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1745,52 +1785,52 @@
   <sheetData>
     <row r="1" spans="1:100" ht="16.5" x14ac:dyDescent="0.3">
       <c r="K1" s="58"/>
-      <c r="L1" s="92" t="s">
+      <c r="L1" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
       <c r="O1" s="31"/>
-      <c r="P1" s="92" t="s">
+      <c r="P1" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
     </row>
     <row r="2" spans="1:100" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K2" s="61"/>
-      <c r="L2" s="93" t="s">
+      <c r="L2" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
       <c r="O2" s="30"/>
-      <c r="P2" s="92" t="s">
+      <c r="P2" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
     </row>
     <row r="3" spans="1:100" s="2" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="101" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="32" t="s">
@@ -1898,13 +1938,13 @@
       <c r="CV3" s="34"/>
     </row>
     <row r="4" spans="1:100" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="36" t="s">
         <v>9</v>
       </c>
@@ -2186,16 +2226,16 @@
       </c>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="94" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="94" t="s">
         <v>101</v>
       </c>
       <c r="E5" s="40">
@@ -2208,24 +2248,24 @@
         <v>1</v>
       </c>
       <c r="H5" s="52"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="119"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="24"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="113"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="78"/>
       <c r="AA5" s="24"/>
       <c r="AB5" s="24"/>
       <c r="AC5" s="24"/>
@@ -2237,7 +2277,7 @@
       <c r="AI5" s="24"/>
       <c r="AJ5" s="24"/>
       <c r="AK5" s="24"/>
-      <c r="AL5" s="107"/>
+      <c r="AL5" s="72"/>
       <c r="AM5" s="16"/>
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
@@ -2297,17 +2337,17 @@
       <c r="CQ5" s="24"/>
       <c r="CR5" s="24"/>
       <c r="CS5" s="24"/>
-      <c r="CT5" s="107"/>
+      <c r="CT5" s="72"/>
       <c r="CU5" s="52"/>
-      <c r="CV5" s="107"/>
+      <c r="CV5" s="72"/>
     </row>
     <row r="6" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="40">
         <v>44446</v>
       </c>
@@ -2324,13 +2364,13 @@
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="122"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
       <c r="V6" s="31"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
@@ -2412,16 +2452,16 @@
       <c r="CV6" s="43"/>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="96" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="110" t="s">
         <v>101</v>
       </c>
       <c r="E7" s="40">
@@ -2431,7 +2471,7 @@
         <v>44465</v>
       </c>
       <c r="G7" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="42"/>
@@ -2528,12 +2568,12 @@
       <c r="CV7" s="43"/>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="70"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="91"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="40">
         <v>44455</v>
       </c>
@@ -2541,7 +2581,7 @@
         <v>44465</v>
       </c>
       <c r="G8" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="42"/>
@@ -2638,8 +2678,8 @@
       <c r="CV8" s="43"/>
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="A9" s="80"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="27" t="s">
         <v>65</v>
       </c>
@@ -2650,10 +2690,10 @@
         <v>44455</v>
       </c>
       <c r="F9" s="40">
-        <v>44465</v>
+        <v>44484</v>
       </c>
       <c r="G9" s="57">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="42"/>
@@ -2750,11 +2790,11 @@
       <c r="CV9" s="43"/>
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="A10" s="80"/>
-      <c r="B10" s="70" t="s">
+      <c r="A10" s="89"/>
+      <c r="B10" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="27" t="s">
         <v>103</v>
       </c>
@@ -2765,7 +2805,7 @@
         <v>44469</v>
       </c>
       <c r="G10" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="42"/>
@@ -2862,11 +2902,11 @@
       <c r="CV10" s="43"/>
     </row>
     <row r="11" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="25" t="s">
         <v>103</v>
       </c>
@@ -2877,7 +2917,7 @@
         <v>44469</v>
       </c>
       <c r="G11" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="42"/>
@@ -2974,22 +3014,24 @@
       <c r="CV11" s="43"/>
     </row>
     <row r="12" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="70" t="s">
+      <c r="A12" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="63" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="40">
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="F12" s="40">
-        <v>44469</v>
+        <v>44477</v>
       </c>
       <c r="G12" s="57">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="42"/>
@@ -3086,24 +3128,24 @@
       <c r="CV12" s="43"/>
     </row>
     <row r="13" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="95" t="s">
-        <v>104</v>
+      <c r="A13" s="92"/>
+      <c r="B13" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="E13" s="40">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="F13" s="40">
-        <v>44473</v>
+        <v>44500</v>
       </c>
       <c r="G13" s="57">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="42"/>
@@ -3199,21 +3241,23 @@
       <c r="CU13" s="44"/>
       <c r="CV13" s="43"/>
     </row>
-    <row r="14" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="96"/>
+    <row r="14" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="92"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>104</v>
+      </c>
       <c r="E14" s="40">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="F14" s="40">
-        <v>44473</v>
+        <v>44500</v>
       </c>
       <c r="G14" s="57">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="42"/>
@@ -3310,24 +3354,22 @@
       <c r="CV14" s="43"/>
     </row>
     <row r="15" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>105</v>
+      <c r="A15" s="92"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>103</v>
       </c>
       <c r="E15" s="40">
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="F15" s="40">
-        <v>44500</v>
+        <v>44491</v>
       </c>
       <c r="G15" s="57">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="42"/>
@@ -3424,24 +3466,22 @@
       <c r="CV15" s="43"/>
     </row>
     <row r="16" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
-      <c r="B16" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>104</v>
+      <c r="A16" s="92"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>102</v>
       </c>
       <c r="E16" s="40">
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="F16" s="40">
-        <v>44480</v>
+        <v>44500</v>
       </c>
       <c r="G16" s="57">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="42"/>
@@ -3538,17 +3578,21 @@
       <c r="CV16" s="43"/>
     </row>
     <row r="17" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="104" t="s">
+        <v>98</v>
+      </c>
       <c r="C17" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="68"/>
+        <v>99</v>
+      </c>
+      <c r="D17" s="118" t="s">
+        <v>104</v>
+      </c>
       <c r="E17" s="40">
-        <v>44473</v>
+        <v>44480</v>
       </c>
       <c r="F17" s="40">
-        <v>44480</v>
+        <v>44500</v>
       </c>
       <c r="G17" s="57">
         <v>0</v>
@@ -3648,21 +3692,17 @@
       <c r="CV17" s="43"/>
     </row>
     <row r="18" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="66" t="s">
-        <v>79</v>
-      </c>
+      <c r="A18" s="92"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>104</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D18" s="119"/>
       <c r="E18" s="40">
-        <v>44473</v>
+        <v>44480</v>
       </c>
       <c r="F18" s="40">
-        <v>44480</v>
+        <v>44500</v>
       </c>
       <c r="G18" s="57">
         <v>0</v>
@@ -3762,17 +3802,21 @@
       <c r="CV18" s="43"/>
     </row>
     <row r="19" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="68"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="C19" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="68"/>
+        <v>76</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>105</v>
+      </c>
       <c r="E19" s="40">
         <v>44473</v>
       </c>
       <c r="F19" s="40">
-        <v>44486</v>
+        <v>44500</v>
       </c>
       <c r="G19" s="57">
         <v>0</v>
@@ -3872,74 +3916,74 @@
       <c r="CV19" s="43"/>
     </row>
     <row r="20" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="66" t="s">
-        <v>84</v>
+      <c r="A20" s="92"/>
+      <c r="B20" s="104" t="s">
+        <v>54</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="D20" s="94" t="s">
+        <v>104</v>
       </c>
       <c r="E20" s="40">
-        <v>44480</v>
+        <v>44473</v>
       </c>
       <c r="F20" s="40">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="G20" s="57">
         <v>0</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="101"/>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="101"/>
-      <c r="AD20" s="101"/>
-      <c r="AE20" s="101"/>
-      <c r="AF20" s="101"/>
-      <c r="AG20" s="101"/>
-      <c r="AH20" s="101"/>
-      <c r="AI20" s="101"/>
-      <c r="AJ20" s="101"/>
-      <c r="AK20" s="101"/>
-      <c r="AL20" s="102"/>
-      <c r="AM20" s="20"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="101"/>
-      <c r="AR20" s="101"/>
-      <c r="AS20" s="101"/>
-      <c r="AT20" s="101"/>
-      <c r="AU20" s="101"/>
-      <c r="AV20" s="101"/>
-      <c r="AW20" s="101"/>
-      <c r="AX20" s="101"/>
-      <c r="AY20" s="101"/>
-      <c r="AZ20" s="101"/>
-      <c r="BA20" s="101"/>
-      <c r="BB20" s="101"/>
-      <c r="BC20" s="101"/>
-      <c r="BD20" s="101"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="43"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
+      <c r="AU20" s="42"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
+      <c r="AX20" s="42"/>
+      <c r="AY20" s="42"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="42"/>
+      <c r="BB20" s="42"/>
+      <c r="BC20" s="42"/>
+      <c r="BD20" s="42"/>
       <c r="BE20" s="42"/>
       <c r="BF20" s="42"/>
       <c r="BG20" s="42"/>
@@ -3951,25 +3995,25 @@
       <c r="BM20" s="42"/>
       <c r="BN20" s="42"/>
       <c r="BO20" s="42"/>
-      <c r="BP20" s="102"/>
-      <c r="BQ20" s="108"/>
-      <c r="BR20" s="101"/>
-      <c r="BS20" s="101"/>
-      <c r="BT20" s="101"/>
-      <c r="BU20" s="101"/>
-      <c r="BV20" s="101"/>
-      <c r="BW20" s="101"/>
-      <c r="BX20" s="101"/>
-      <c r="BY20" s="101"/>
-      <c r="BZ20" s="101"/>
-      <c r="CA20" s="101"/>
-      <c r="CB20" s="101"/>
-      <c r="CC20" s="101"/>
-      <c r="CD20" s="101"/>
-      <c r="CE20" s="101"/>
-      <c r="CF20" s="101"/>
-      <c r="CG20" s="101"/>
-      <c r="CH20" s="101"/>
+      <c r="BP20" s="43"/>
+      <c r="BQ20" s="44"/>
+      <c r="BR20" s="42"/>
+      <c r="BS20" s="42"/>
+      <c r="BT20" s="42"/>
+      <c r="BU20" s="42"/>
+      <c r="BV20" s="42"/>
+      <c r="BW20" s="42"/>
+      <c r="BX20" s="42"/>
+      <c r="BY20" s="42"/>
+      <c r="BZ20" s="42"/>
+      <c r="CA20" s="42"/>
+      <c r="CB20" s="42"/>
+      <c r="CC20" s="42"/>
+      <c r="CD20" s="42"/>
+      <c r="CE20" s="42"/>
+      <c r="CF20" s="42"/>
+      <c r="CG20" s="42"/>
+      <c r="CH20" s="42"/>
       <c r="CI20" s="42"/>
       <c r="CJ20" s="42"/>
       <c r="CK20" s="42"/>
@@ -3981,75 +4025,75 @@
       <c r="CQ20" s="42"/>
       <c r="CR20" s="42"/>
       <c r="CS20" s="42"/>
-      <c r="CT20" s="102"/>
-      <c r="CU20" s="108"/>
-      <c r="CV20" s="102"/>
+      <c r="CT20" s="43"/>
+      <c r="CU20" s="44"/>
+      <c r="CV20" s="43"/>
     </row>
     <row r="21" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="67"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="95"/>
       <c r="E21" s="40">
-        <v>44480</v>
+        <v>44473</v>
       </c>
       <c r="F21" s="40">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="G21" s="57">
         <v>0</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="101"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="101"/>
-      <c r="AB21" s="101"/>
-      <c r="AC21" s="101"/>
-      <c r="AD21" s="101"/>
-      <c r="AE21" s="101"/>
-      <c r="AF21" s="101"/>
-      <c r="AG21" s="101"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="101"/>
-      <c r="AJ21" s="101"/>
-      <c r="AK21" s="101"/>
-      <c r="AL21" s="102"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="101"/>
-      <c r="AR21" s="101"/>
-      <c r="AS21" s="101"/>
-      <c r="AT21" s="101"/>
-      <c r="AU21" s="101"/>
-      <c r="AV21" s="101"/>
-      <c r="AW21" s="101"/>
-      <c r="AX21" s="101"/>
-      <c r="AY21" s="101"/>
-      <c r="AZ21" s="101"/>
-      <c r="BA21" s="101"/>
-      <c r="BB21" s="101"/>
-      <c r="BC21" s="101"/>
-      <c r="BD21" s="101"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="42"/>
+      <c r="AT21" s="42"/>
+      <c r="AU21" s="42"/>
+      <c r="AV21" s="42"/>
+      <c r="AW21" s="42"/>
+      <c r="AX21" s="42"/>
+      <c r="AY21" s="42"/>
+      <c r="AZ21" s="42"/>
+      <c r="BA21" s="42"/>
+      <c r="BB21" s="42"/>
+      <c r="BC21" s="42"/>
+      <c r="BD21" s="42"/>
       <c r="BE21" s="42"/>
       <c r="BF21" s="42"/>
       <c r="BG21" s="42"/>
@@ -4061,25 +4105,25 @@
       <c r="BM21" s="42"/>
       <c r="BN21" s="42"/>
       <c r="BO21" s="42"/>
-      <c r="BP21" s="102"/>
-      <c r="BQ21" s="108"/>
-      <c r="BR21" s="101"/>
-      <c r="BS21" s="101"/>
-      <c r="BT21" s="101"/>
-      <c r="BU21" s="101"/>
-      <c r="BV21" s="101"/>
-      <c r="BW21" s="101"/>
-      <c r="BX21" s="101"/>
-      <c r="BY21" s="101"/>
-      <c r="BZ21" s="101"/>
-      <c r="CA21" s="101"/>
-      <c r="CB21" s="101"/>
-      <c r="CC21" s="101"/>
-      <c r="CD21" s="101"/>
-      <c r="CE21" s="101"/>
-      <c r="CF21" s="101"/>
-      <c r="CG21" s="101"/>
-      <c r="CH21" s="101"/>
+      <c r="BP21" s="43"/>
+      <c r="BQ21" s="44"/>
+      <c r="BR21" s="42"/>
+      <c r="BS21" s="42"/>
+      <c r="BT21" s="42"/>
+      <c r="BU21" s="42"/>
+      <c r="BV21" s="42"/>
+      <c r="BW21" s="42"/>
+      <c r="BX21" s="42"/>
+      <c r="BY21" s="42"/>
+      <c r="BZ21" s="42"/>
+      <c r="CA21" s="42"/>
+      <c r="CB21" s="42"/>
+      <c r="CC21" s="42"/>
+      <c r="CD21" s="42"/>
+      <c r="CE21" s="42"/>
+      <c r="CF21" s="42"/>
+      <c r="CG21" s="42"/>
+      <c r="CH21" s="42"/>
       <c r="CI21" s="42"/>
       <c r="CJ21" s="42"/>
       <c r="CK21" s="42"/>
@@ -4091,75 +4135,79 @@
       <c r="CQ21" s="42"/>
       <c r="CR21" s="42"/>
       <c r="CS21" s="42"/>
-      <c r="CT21" s="102"/>
-      <c r="CU21" s="108"/>
-      <c r="CV21" s="102"/>
-    </row>
-    <row r="22" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="67"/>
+      <c r="CT21" s="43"/>
+      <c r="CU21" s="44"/>
+      <c r="CV21" s="43"/>
+    </row>
+    <row r="22" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="92"/>
+      <c r="B22" s="94" t="s">
+        <v>79</v>
+      </c>
       <c r="C22" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="67"/>
+        <v>80</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>104</v>
+      </c>
       <c r="E22" s="40">
-        <v>44480</v>
+        <v>44473</v>
       </c>
       <c r="F22" s="40">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="G22" s="57">
         <v>0</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101"/>
-      <c r="U22" s="101"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="101"/>
-      <c r="AA22" s="101"/>
-      <c r="AB22" s="101"/>
-      <c r="AC22" s="101"/>
-      <c r="AD22" s="101"/>
-      <c r="AE22" s="101"/>
-      <c r="AF22" s="101"/>
-      <c r="AG22" s="101"/>
-      <c r="AH22" s="101"/>
-      <c r="AI22" s="101"/>
-      <c r="AJ22" s="101"/>
-      <c r="AK22" s="101"/>
-      <c r="AL22" s="102"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="101"/>
-      <c r="AR22" s="101"/>
-      <c r="AS22" s="101"/>
-      <c r="AT22" s="101"/>
-      <c r="AU22" s="101"/>
-      <c r="AV22" s="101"/>
-      <c r="AW22" s="101"/>
-      <c r="AX22" s="101"/>
-      <c r="AY22" s="101"/>
-      <c r="AZ22" s="101"/>
-      <c r="BA22" s="101"/>
-      <c r="BB22" s="101"/>
-      <c r="BC22" s="101"/>
-      <c r="BD22" s="101"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="43"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="42"/>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="42"/>
+      <c r="AU22" s="42"/>
+      <c r="AV22" s="42"/>
+      <c r="AW22" s="42"/>
+      <c r="AX22" s="42"/>
+      <c r="AY22" s="42"/>
+      <c r="AZ22" s="42"/>
+      <c r="BA22" s="42"/>
+      <c r="BB22" s="42"/>
+      <c r="BC22" s="42"/>
+      <c r="BD22" s="42"/>
       <c r="BE22" s="42"/>
       <c r="BF22" s="42"/>
       <c r="BG22" s="42"/>
@@ -4171,25 +4219,25 @@
       <c r="BM22" s="42"/>
       <c r="BN22" s="42"/>
       <c r="BO22" s="42"/>
-      <c r="BP22" s="102"/>
-      <c r="BQ22" s="108"/>
-      <c r="BR22" s="101"/>
-      <c r="BS22" s="101"/>
-      <c r="BT22" s="101"/>
-      <c r="BU22" s="101"/>
-      <c r="BV22" s="101"/>
-      <c r="BW22" s="101"/>
-      <c r="BX22" s="101"/>
-      <c r="BY22" s="101"/>
-      <c r="BZ22" s="101"/>
-      <c r="CA22" s="101"/>
-      <c r="CB22" s="101"/>
-      <c r="CC22" s="101"/>
-      <c r="CD22" s="101"/>
-      <c r="CE22" s="101"/>
-      <c r="CF22" s="101"/>
-      <c r="CG22" s="101"/>
-      <c r="CH22" s="101"/>
+      <c r="BP22" s="43"/>
+      <c r="BQ22" s="44"/>
+      <c r="BR22" s="42"/>
+      <c r="BS22" s="42"/>
+      <c r="BT22" s="42"/>
+      <c r="BU22" s="42"/>
+      <c r="BV22" s="42"/>
+      <c r="BW22" s="42"/>
+      <c r="BX22" s="42"/>
+      <c r="BY22" s="42"/>
+      <c r="BZ22" s="42"/>
+      <c r="CA22" s="42"/>
+      <c r="CB22" s="42"/>
+      <c r="CC22" s="42"/>
+      <c r="CD22" s="42"/>
+      <c r="CE22" s="42"/>
+      <c r="CF22" s="42"/>
+      <c r="CG22" s="42"/>
+      <c r="CH22" s="42"/>
       <c r="CI22" s="42"/>
       <c r="CJ22" s="42"/>
       <c r="CK22" s="42"/>
@@ -4201,75 +4249,75 @@
       <c r="CQ22" s="42"/>
       <c r="CR22" s="42"/>
       <c r="CS22" s="42"/>
-      <c r="CT22" s="102"/>
-      <c r="CU22" s="108"/>
-      <c r="CV22" s="102"/>
+      <c r="CT22" s="43"/>
+      <c r="CU22" s="44"/>
+      <c r="CV22" s="43"/>
     </row>
     <row r="23" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="68"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="95"/>
       <c r="E23" s="40">
-        <v>44480</v>
+        <v>44473</v>
       </c>
       <c r="F23" s="40">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="G23" s="57">
         <v>0</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="101"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="101"/>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="101"/>
-      <c r="AE23" s="101"/>
-      <c r="AF23" s="101"/>
-      <c r="AG23" s="101"/>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="101"/>
-      <c r="AJ23" s="101"/>
-      <c r="AK23" s="101"/>
-      <c r="AL23" s="102"/>
-      <c r="AM23" s="20"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="101"/>
-      <c r="AR23" s="101"/>
-      <c r="AS23" s="101"/>
-      <c r="AT23" s="101"/>
-      <c r="AU23" s="101"/>
-      <c r="AV23" s="101"/>
-      <c r="AW23" s="101"/>
-      <c r="AX23" s="101"/>
-      <c r="AY23" s="101"/>
-      <c r="AZ23" s="101"/>
-      <c r="BA23" s="101"/>
-      <c r="BB23" s="101"/>
-      <c r="BC23" s="101"/>
-      <c r="BD23" s="101"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="42"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
+      <c r="AS23" s="42"/>
+      <c r="AT23" s="42"/>
+      <c r="AU23" s="42"/>
+      <c r="AV23" s="42"/>
+      <c r="AW23" s="42"/>
+      <c r="AX23" s="42"/>
+      <c r="AY23" s="42"/>
+      <c r="AZ23" s="42"/>
+      <c r="BA23" s="42"/>
+      <c r="BB23" s="42"/>
+      <c r="BC23" s="42"/>
+      <c r="BD23" s="42"/>
       <c r="BE23" s="42"/>
       <c r="BF23" s="42"/>
       <c r="BG23" s="42"/>
@@ -4281,25 +4329,25 @@
       <c r="BM23" s="42"/>
       <c r="BN23" s="42"/>
       <c r="BO23" s="42"/>
-      <c r="BP23" s="102"/>
-      <c r="BQ23" s="108"/>
-      <c r="BR23" s="101"/>
-      <c r="BS23" s="101"/>
-      <c r="BT23" s="101"/>
-      <c r="BU23" s="101"/>
-      <c r="BV23" s="101"/>
-      <c r="BW23" s="101"/>
-      <c r="BX23" s="101"/>
-      <c r="BY23" s="101"/>
-      <c r="BZ23" s="101"/>
-      <c r="CA23" s="101"/>
-      <c r="CB23" s="101"/>
-      <c r="CC23" s="101"/>
-      <c r="CD23" s="101"/>
-      <c r="CE23" s="101"/>
-      <c r="CF23" s="101"/>
-      <c r="CG23" s="101"/>
-      <c r="CH23" s="101"/>
+      <c r="BP23" s="43"/>
+      <c r="BQ23" s="44"/>
+      <c r="BR23" s="42"/>
+      <c r="BS23" s="42"/>
+      <c r="BT23" s="42"/>
+      <c r="BU23" s="42"/>
+      <c r="BV23" s="42"/>
+      <c r="BW23" s="42"/>
+      <c r="BX23" s="42"/>
+      <c r="BY23" s="42"/>
+      <c r="BZ23" s="42"/>
+      <c r="CA23" s="42"/>
+      <c r="CB23" s="42"/>
+      <c r="CC23" s="42"/>
+      <c r="CD23" s="42"/>
+      <c r="CE23" s="42"/>
+      <c r="CF23" s="42"/>
+      <c r="CG23" s="42"/>
+      <c r="CH23" s="42"/>
       <c r="CI23" s="42"/>
       <c r="CJ23" s="42"/>
       <c r="CK23" s="42"/>
@@ -4311,20 +4359,20 @@
       <c r="CQ23" s="42"/>
       <c r="CR23" s="42"/>
       <c r="CS23" s="42"/>
-      <c r="CT23" s="102"/>
-      <c r="CU23" s="108"/>
-      <c r="CV23" s="102"/>
-    </row>
-    <row r="24" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>101</v>
+      <c r="CT23" s="43"/>
+      <c r="CU23" s="44"/>
+      <c r="CV23" s="43"/>
+    </row>
+    <row r="24" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="92"/>
+      <c r="B24" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>102</v>
       </c>
       <c r="E24" s="40">
         <v>44480</v>
@@ -4336,54 +4384,54 @@
         <v>0</v>
       </c>
       <c r="H24" s="20"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="101"/>
-      <c r="AE24" s="101"/>
-      <c r="AF24" s="101"/>
-      <c r="AG24" s="101"/>
-      <c r="AH24" s="101"/>
-      <c r="AI24" s="101"/>
-      <c r="AJ24" s="101"/>
-      <c r="AK24" s="101"/>
-      <c r="AL24" s="102"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="67"/>
       <c r="AM24" s="20"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
-      <c r="AQ24" s="101"/>
-      <c r="AR24" s="101"/>
-      <c r="AS24" s="101"/>
-      <c r="AT24" s="101"/>
-      <c r="AU24" s="101"/>
-      <c r="AV24" s="101"/>
-      <c r="AW24" s="101"/>
-      <c r="AX24" s="101"/>
-      <c r="AY24" s="101"/>
-      <c r="AZ24" s="101"/>
-      <c r="BA24" s="101"/>
-      <c r="BB24" s="101"/>
-      <c r="BC24" s="101"/>
-      <c r="BD24" s="101"/>
+      <c r="AQ24" s="66"/>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="66"/>
+      <c r="AT24" s="66"/>
+      <c r="AU24" s="66"/>
+      <c r="AV24" s="66"/>
+      <c r="AW24" s="66"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="66"/>
+      <c r="AZ24" s="66"/>
+      <c r="BA24" s="66"/>
+      <c r="BB24" s="66"/>
+      <c r="BC24" s="66"/>
+      <c r="BD24" s="66"/>
       <c r="BE24" s="42"/>
       <c r="BF24" s="42"/>
       <c r="BG24" s="42"/>
@@ -4395,25 +4443,25 @@
       <c r="BM24" s="42"/>
       <c r="BN24" s="42"/>
       <c r="BO24" s="42"/>
-      <c r="BP24" s="102"/>
-      <c r="BQ24" s="108"/>
-      <c r="BR24" s="101"/>
-      <c r="BS24" s="101"/>
-      <c r="BT24" s="101"/>
-      <c r="BU24" s="101"/>
-      <c r="BV24" s="101"/>
-      <c r="BW24" s="101"/>
-      <c r="BX24" s="101"/>
-      <c r="BY24" s="101"/>
-      <c r="BZ24" s="101"/>
-      <c r="CA24" s="101"/>
-      <c r="CB24" s="101"/>
-      <c r="CC24" s="101"/>
-      <c r="CD24" s="101"/>
-      <c r="CE24" s="101"/>
-      <c r="CF24" s="101"/>
-      <c r="CG24" s="101"/>
-      <c r="CH24" s="101"/>
+      <c r="BP24" s="67"/>
+      <c r="BQ24" s="73"/>
+      <c r="BR24" s="66"/>
+      <c r="BS24" s="66"/>
+      <c r="BT24" s="66"/>
+      <c r="BU24" s="66"/>
+      <c r="BV24" s="66"/>
+      <c r="BW24" s="66"/>
+      <c r="BX24" s="66"/>
+      <c r="BY24" s="66"/>
+      <c r="BZ24" s="66"/>
+      <c r="CA24" s="66"/>
+      <c r="CB24" s="66"/>
+      <c r="CC24" s="66"/>
+      <c r="CD24" s="66"/>
+      <c r="CE24" s="66"/>
+      <c r="CF24" s="66"/>
+      <c r="CG24" s="66"/>
+      <c r="CH24" s="66"/>
       <c r="CI24" s="42"/>
       <c r="CJ24" s="42"/>
       <c r="CK24" s="42"/>
@@ -4425,17 +4473,17 @@
       <c r="CQ24" s="42"/>
       <c r="CR24" s="42"/>
       <c r="CS24" s="42"/>
-      <c r="CT24" s="102"/>
-      <c r="CU24" s="108"/>
-      <c r="CV24" s="102"/>
-    </row>
-    <row r="25" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="69"/>
+      <c r="CT24" s="67"/>
+      <c r="CU24" s="73"/>
+      <c r="CV24" s="67"/>
+    </row>
+    <row r="25" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="92"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="103"/>
       <c r="E25" s="40">
         <v>44480</v>
       </c>
@@ -4446,54 +4494,54 @@
         <v>0</v>
       </c>
       <c r="H25" s="20"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="101"/>
-      <c r="AC25" s="101"/>
-      <c r="AD25" s="101"/>
-      <c r="AE25" s="101"/>
-      <c r="AF25" s="101"/>
-      <c r="AG25" s="101"/>
-      <c r="AH25" s="101"/>
-      <c r="AI25" s="101"/>
-      <c r="AJ25" s="101"/>
-      <c r="AK25" s="101"/>
-      <c r="AL25" s="102"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="67"/>
       <c r="AM25" s="20"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
-      <c r="AQ25" s="101"/>
-      <c r="AR25" s="101"/>
-      <c r="AS25" s="101"/>
-      <c r="AT25" s="101"/>
-      <c r="AU25" s="101"/>
-      <c r="AV25" s="101"/>
-      <c r="AW25" s="101"/>
-      <c r="AX25" s="101"/>
-      <c r="AY25" s="101"/>
-      <c r="AZ25" s="101"/>
-      <c r="BA25" s="101"/>
-      <c r="BB25" s="101"/>
-      <c r="BC25" s="101"/>
-      <c r="BD25" s="101"/>
+      <c r="AQ25" s="66"/>
+      <c r="AR25" s="66"/>
+      <c r="AS25" s="66"/>
+      <c r="AT25" s="66"/>
+      <c r="AU25" s="66"/>
+      <c r="AV25" s="66"/>
+      <c r="AW25" s="66"/>
+      <c r="AX25" s="66"/>
+      <c r="AY25" s="66"/>
+      <c r="AZ25" s="66"/>
+      <c r="BA25" s="66"/>
+      <c r="BB25" s="66"/>
+      <c r="BC25" s="66"/>
+      <c r="BD25" s="66"/>
       <c r="BE25" s="42"/>
       <c r="BF25" s="42"/>
       <c r="BG25" s="42"/>
@@ -4505,25 +4553,25 @@
       <c r="BM25" s="42"/>
       <c r="BN25" s="42"/>
       <c r="BO25" s="42"/>
-      <c r="BP25" s="102"/>
-      <c r="BQ25" s="108"/>
-      <c r="BR25" s="101"/>
-      <c r="BS25" s="101"/>
-      <c r="BT25" s="101"/>
-      <c r="BU25" s="101"/>
-      <c r="BV25" s="101"/>
-      <c r="BW25" s="101"/>
-      <c r="BX25" s="101"/>
-      <c r="BY25" s="101"/>
-      <c r="BZ25" s="101"/>
-      <c r="CA25" s="101"/>
-      <c r="CB25" s="101"/>
-      <c r="CC25" s="101"/>
-      <c r="CD25" s="101"/>
-      <c r="CE25" s="101"/>
-      <c r="CF25" s="101"/>
-      <c r="CG25" s="101"/>
-      <c r="CH25" s="101"/>
+      <c r="BP25" s="67"/>
+      <c r="BQ25" s="73"/>
+      <c r="BR25" s="66"/>
+      <c r="BS25" s="66"/>
+      <c r="BT25" s="66"/>
+      <c r="BU25" s="66"/>
+      <c r="BV25" s="66"/>
+      <c r="BW25" s="66"/>
+      <c r="BX25" s="66"/>
+      <c r="BY25" s="66"/>
+      <c r="BZ25" s="66"/>
+      <c r="CA25" s="66"/>
+      <c r="CB25" s="66"/>
+      <c r="CC25" s="66"/>
+      <c r="CD25" s="66"/>
+      <c r="CE25" s="66"/>
+      <c r="CF25" s="66"/>
+      <c r="CG25" s="66"/>
+      <c r="CH25" s="66"/>
       <c r="CI25" s="42"/>
       <c r="CJ25" s="42"/>
       <c r="CK25" s="42"/>
@@ -4535,17 +4583,17 @@
       <c r="CQ25" s="42"/>
       <c r="CR25" s="42"/>
       <c r="CS25" s="42"/>
-      <c r="CT25" s="102"/>
-      <c r="CU25" s="108"/>
-      <c r="CV25" s="102"/>
+      <c r="CT25" s="67"/>
+      <c r="CU25" s="73"/>
+      <c r="CV25" s="67"/>
     </row>
     <row r="26" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="68"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="69"/>
+        <v>86</v>
+      </c>
+      <c r="D26" s="103"/>
       <c r="E26" s="40">
         <v>44480</v>
       </c>
@@ -4556,54 +4604,54 @@
         <v>0</v>
       </c>
       <c r="H26" s="20"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="101"/>
-      <c r="AB26" s="101"/>
-      <c r="AC26" s="101"/>
-      <c r="AD26" s="101"/>
-      <c r="AE26" s="101"/>
-      <c r="AF26" s="101"/>
-      <c r="AG26" s="101"/>
-      <c r="AH26" s="101"/>
-      <c r="AI26" s="101"/>
-      <c r="AJ26" s="101"/>
-      <c r="AK26" s="101"/>
-      <c r="AL26" s="102"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="66"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="67"/>
       <c r="AM26" s="20"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="3"/>
-      <c r="AQ26" s="101"/>
-      <c r="AR26" s="101"/>
-      <c r="AS26" s="101"/>
-      <c r="AT26" s="101"/>
-      <c r="AU26" s="101"/>
-      <c r="AV26" s="101"/>
-      <c r="AW26" s="101"/>
-      <c r="AX26" s="101"/>
-      <c r="AY26" s="101"/>
-      <c r="AZ26" s="101"/>
-      <c r="BA26" s="101"/>
-      <c r="BB26" s="101"/>
-      <c r="BC26" s="101"/>
-      <c r="BD26" s="101"/>
+      <c r="AQ26" s="66"/>
+      <c r="AR26" s="66"/>
+      <c r="AS26" s="66"/>
+      <c r="AT26" s="66"/>
+      <c r="AU26" s="66"/>
+      <c r="AV26" s="66"/>
+      <c r="AW26" s="66"/>
+      <c r="AX26" s="66"/>
+      <c r="AY26" s="66"/>
+      <c r="AZ26" s="66"/>
+      <c r="BA26" s="66"/>
+      <c r="BB26" s="66"/>
+      <c r="BC26" s="66"/>
+      <c r="BD26" s="66"/>
       <c r="BE26" s="42"/>
       <c r="BF26" s="42"/>
       <c r="BG26" s="42"/>
@@ -4615,25 +4663,25 @@
       <c r="BM26" s="42"/>
       <c r="BN26" s="42"/>
       <c r="BO26" s="42"/>
-      <c r="BP26" s="102"/>
-      <c r="BQ26" s="108"/>
-      <c r="BR26" s="101"/>
-      <c r="BS26" s="101"/>
-      <c r="BT26" s="101"/>
-      <c r="BU26" s="101"/>
-      <c r="BV26" s="101"/>
-      <c r="BW26" s="101"/>
-      <c r="BX26" s="101"/>
-      <c r="BY26" s="101"/>
-      <c r="BZ26" s="101"/>
-      <c r="CA26" s="101"/>
-      <c r="CB26" s="101"/>
-      <c r="CC26" s="101"/>
-      <c r="CD26" s="101"/>
-      <c r="CE26" s="101"/>
-      <c r="CF26" s="101"/>
-      <c r="CG26" s="101"/>
-      <c r="CH26" s="101"/>
+      <c r="BP26" s="67"/>
+      <c r="BQ26" s="73"/>
+      <c r="BR26" s="66"/>
+      <c r="BS26" s="66"/>
+      <c r="BT26" s="66"/>
+      <c r="BU26" s="66"/>
+      <c r="BV26" s="66"/>
+      <c r="BW26" s="66"/>
+      <c r="BX26" s="66"/>
+      <c r="BY26" s="66"/>
+      <c r="BZ26" s="66"/>
+      <c r="CA26" s="66"/>
+      <c r="CB26" s="66"/>
+      <c r="CC26" s="66"/>
+      <c r="CD26" s="66"/>
+      <c r="CE26" s="66"/>
+      <c r="CF26" s="66"/>
+      <c r="CG26" s="66"/>
+      <c r="CH26" s="66"/>
       <c r="CI26" s="42"/>
       <c r="CJ26" s="42"/>
       <c r="CK26" s="42"/>
@@ -4645,21 +4693,17 @@
       <c r="CQ26" s="42"/>
       <c r="CR26" s="42"/>
       <c r="CS26" s="42"/>
-      <c r="CT26" s="102"/>
-      <c r="CU26" s="108"/>
-      <c r="CV26" s="102"/>
+      <c r="CT26" s="67"/>
+      <c r="CU26" s="73"/>
+      <c r="CV26" s="67"/>
     </row>
     <row r="27" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
-      <c r="B27" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="66" t="s">
-        <v>104</v>
-      </c>
+      <c r="A27" s="92"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="95"/>
       <c r="E27" s="40">
         <v>44480</v>
       </c>
@@ -4669,107 +4713,111 @@
       <c r="G27" s="57">
         <v>0</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="103"/>
-      <c r="AA27" s="103"/>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="103"/>
-      <c r="AD27" s="103"/>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="103"/>
-      <c r="AG27" s="103"/>
-      <c r="AH27" s="103"/>
-      <c r="AI27" s="103"/>
-      <c r="AJ27" s="103"/>
-      <c r="AK27" s="103"/>
-      <c r="AL27" s="104"/>
-      <c r="AM27" s="21"/>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="8"/>
-      <c r="AP27" s="8"/>
-      <c r="AQ27" s="103"/>
-      <c r="AR27" s="103"/>
-      <c r="AS27" s="103"/>
-      <c r="AT27" s="103"/>
-      <c r="AU27" s="103"/>
-      <c r="AV27" s="103"/>
-      <c r="AW27" s="103"/>
-      <c r="AX27" s="103"/>
-      <c r="AY27" s="103"/>
-      <c r="AZ27" s="103"/>
-      <c r="BA27" s="103"/>
-      <c r="BB27" s="103"/>
-      <c r="BC27" s="103"/>
-      <c r="BD27" s="103"/>
-      <c r="BE27" s="24"/>
-      <c r="BF27" s="24"/>
-      <c r="BG27" s="24"/>
-      <c r="BH27" s="24"/>
-      <c r="BI27" s="24"/>
-      <c r="BJ27" s="24"/>
-      <c r="BK27" s="24"/>
-      <c r="BL27" s="24"/>
-      <c r="BM27" s="24"/>
-      <c r="BN27" s="24"/>
-      <c r="BO27" s="24"/>
-      <c r="BP27" s="104"/>
-      <c r="BQ27" s="109"/>
-      <c r="BR27" s="103"/>
-      <c r="BS27" s="103"/>
-      <c r="BT27" s="103"/>
-      <c r="BU27" s="103"/>
-      <c r="BV27" s="103"/>
-      <c r="BW27" s="103"/>
-      <c r="BX27" s="103"/>
-      <c r="BY27" s="103"/>
-      <c r="BZ27" s="103"/>
-      <c r="CA27" s="103"/>
-      <c r="CB27" s="103"/>
-      <c r="CC27" s="103"/>
-      <c r="CD27" s="103"/>
-      <c r="CE27" s="103"/>
-      <c r="CF27" s="103"/>
-      <c r="CG27" s="103"/>
-      <c r="CH27" s="103"/>
-      <c r="CI27" s="24"/>
-      <c r="CJ27" s="24"/>
-      <c r="CK27" s="24"/>
-      <c r="CL27" s="24"/>
-      <c r="CM27" s="24"/>
-      <c r="CN27" s="24"/>
-      <c r="CO27" s="24"/>
-      <c r="CP27" s="24"/>
-      <c r="CQ27" s="24"/>
-      <c r="CR27" s="24"/>
-      <c r="CS27" s="24"/>
-      <c r="CT27" s="104"/>
-      <c r="CU27" s="109"/>
-      <c r="CV27" s="104"/>
-    </row>
-    <row r="28" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="67"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="66"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="67"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="66"/>
+      <c r="AR27" s="66"/>
+      <c r="AS27" s="66"/>
+      <c r="AT27" s="66"/>
+      <c r="AU27" s="66"/>
+      <c r="AV27" s="66"/>
+      <c r="AW27" s="66"/>
+      <c r="AX27" s="66"/>
+      <c r="AY27" s="66"/>
+      <c r="AZ27" s="66"/>
+      <c r="BA27" s="66"/>
+      <c r="BB27" s="66"/>
+      <c r="BC27" s="66"/>
+      <c r="BD27" s="66"/>
+      <c r="BE27" s="42"/>
+      <c r="BF27" s="42"/>
+      <c r="BG27" s="42"/>
+      <c r="BH27" s="42"/>
+      <c r="BI27" s="42"/>
+      <c r="BJ27" s="42"/>
+      <c r="BK27" s="42"/>
+      <c r="BL27" s="42"/>
+      <c r="BM27" s="42"/>
+      <c r="BN27" s="42"/>
+      <c r="BO27" s="42"/>
+      <c r="BP27" s="67"/>
+      <c r="BQ27" s="73"/>
+      <c r="BR27" s="66"/>
+      <c r="BS27" s="66"/>
+      <c r="BT27" s="66"/>
+      <c r="BU27" s="66"/>
+      <c r="BV27" s="66"/>
+      <c r="BW27" s="66"/>
+      <c r="BX27" s="66"/>
+      <c r="BY27" s="66"/>
+      <c r="BZ27" s="66"/>
+      <c r="CA27" s="66"/>
+      <c r="CB27" s="66"/>
+      <c r="CC27" s="66"/>
+      <c r="CD27" s="66"/>
+      <c r="CE27" s="66"/>
+      <c r="CF27" s="66"/>
+      <c r="CG27" s="66"/>
+      <c r="CH27" s="66"/>
+      <c r="CI27" s="42"/>
+      <c r="CJ27" s="42"/>
+      <c r="CK27" s="42"/>
+      <c r="CL27" s="42"/>
+      <c r="CM27" s="42"/>
+      <c r="CN27" s="42"/>
+      <c r="CO27" s="42"/>
+      <c r="CP27" s="42"/>
+      <c r="CQ27" s="42"/>
+      <c r="CR27" s="42"/>
+      <c r="CS27" s="42"/>
+      <c r="CT27" s="67"/>
+      <c r="CU27" s="73"/>
+      <c r="CV27" s="67"/>
+    </row>
+    <row r="28" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="92"/>
+      <c r="B28" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="104" t="s">
+        <v>101</v>
+      </c>
       <c r="E28" s="40">
         <v>44480</v>
       </c>
@@ -4779,107 +4827,107 @@
       <c r="G28" s="57">
         <v>0</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="103"/>
-      <c r="AA28" s="103"/>
-      <c r="AB28" s="103"/>
-      <c r="AC28" s="103"/>
-      <c r="AD28" s="103"/>
-      <c r="AE28" s="103"/>
-      <c r="AF28" s="103"/>
-      <c r="AG28" s="103"/>
-      <c r="AH28" s="103"/>
-      <c r="AI28" s="103"/>
-      <c r="AJ28" s="103"/>
-      <c r="AK28" s="103"/>
-      <c r="AL28" s="104"/>
-      <c r="AM28" s="21"/>
-      <c r="AN28" s="8"/>
-      <c r="AO28" s="8"/>
-      <c r="AP28" s="8"/>
-      <c r="AQ28" s="103"/>
-      <c r="AR28" s="103"/>
-      <c r="AS28" s="103"/>
-      <c r="AT28" s="103"/>
-      <c r="AU28" s="103"/>
-      <c r="AV28" s="103"/>
-      <c r="AW28" s="103"/>
-      <c r="AX28" s="103"/>
-      <c r="AY28" s="103"/>
-      <c r="AZ28" s="103"/>
-      <c r="BA28" s="103"/>
-      <c r="BB28" s="103"/>
-      <c r="BC28" s="103"/>
-      <c r="BD28" s="103"/>
-      <c r="BE28" s="24"/>
-      <c r="BF28" s="24"/>
-      <c r="BG28" s="24"/>
-      <c r="BH28" s="24"/>
-      <c r="BI28" s="24"/>
-      <c r="BJ28" s="24"/>
-      <c r="BK28" s="24"/>
-      <c r="BL28" s="24"/>
-      <c r="BM28" s="24"/>
-      <c r="BN28" s="24"/>
-      <c r="BO28" s="24"/>
-      <c r="BP28" s="104"/>
-      <c r="BQ28" s="109"/>
-      <c r="BR28" s="103"/>
-      <c r="BS28" s="103"/>
-      <c r="BT28" s="103"/>
-      <c r="BU28" s="103"/>
-      <c r="BV28" s="103"/>
-      <c r="BW28" s="103"/>
-      <c r="BX28" s="103"/>
-      <c r="BY28" s="103"/>
-      <c r="BZ28" s="103"/>
-      <c r="CA28" s="103"/>
-      <c r="CB28" s="103"/>
-      <c r="CC28" s="103"/>
-      <c r="CD28" s="103"/>
-      <c r="CE28" s="103"/>
-      <c r="CF28" s="103"/>
-      <c r="CG28" s="103"/>
-      <c r="CH28" s="103"/>
-      <c r="CI28" s="24"/>
-      <c r="CJ28" s="24"/>
-      <c r="CK28" s="24"/>
-      <c r="CL28" s="24"/>
-      <c r="CM28" s="24"/>
-      <c r="CN28" s="24"/>
-      <c r="CO28" s="24"/>
-      <c r="CP28" s="24"/>
-      <c r="CQ28" s="24"/>
-      <c r="CR28" s="24"/>
-      <c r="CS28" s="24"/>
-      <c r="CT28" s="104"/>
-      <c r="CU28" s="109"/>
-      <c r="CV28" s="104"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="67"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="66"/>
+      <c r="AR28" s="66"/>
+      <c r="AS28" s="66"/>
+      <c r="AT28" s="66"/>
+      <c r="AU28" s="66"/>
+      <c r="AV28" s="66"/>
+      <c r="AW28" s="66"/>
+      <c r="AX28" s="66"/>
+      <c r="AY28" s="66"/>
+      <c r="AZ28" s="66"/>
+      <c r="BA28" s="66"/>
+      <c r="BB28" s="66"/>
+      <c r="BC28" s="66"/>
+      <c r="BD28" s="66"/>
+      <c r="BE28" s="42"/>
+      <c r="BF28" s="42"/>
+      <c r="BG28" s="42"/>
+      <c r="BH28" s="42"/>
+      <c r="BI28" s="42"/>
+      <c r="BJ28" s="42"/>
+      <c r="BK28" s="42"/>
+      <c r="BL28" s="42"/>
+      <c r="BM28" s="42"/>
+      <c r="BN28" s="42"/>
+      <c r="BO28" s="42"/>
+      <c r="BP28" s="67"/>
+      <c r="BQ28" s="73"/>
+      <c r="BR28" s="66"/>
+      <c r="BS28" s="66"/>
+      <c r="BT28" s="66"/>
+      <c r="BU28" s="66"/>
+      <c r="BV28" s="66"/>
+      <c r="BW28" s="66"/>
+      <c r="BX28" s="66"/>
+      <c r="BY28" s="66"/>
+      <c r="BZ28" s="66"/>
+      <c r="CA28" s="66"/>
+      <c r="CB28" s="66"/>
+      <c r="CC28" s="66"/>
+      <c r="CD28" s="66"/>
+      <c r="CE28" s="66"/>
+      <c r="CF28" s="66"/>
+      <c r="CG28" s="66"/>
+      <c r="CH28" s="66"/>
+      <c r="CI28" s="42"/>
+      <c r="CJ28" s="42"/>
+      <c r="CK28" s="42"/>
+      <c r="CL28" s="42"/>
+      <c r="CM28" s="42"/>
+      <c r="CN28" s="42"/>
+      <c r="CO28" s="42"/>
+      <c r="CP28" s="42"/>
+      <c r="CQ28" s="42"/>
+      <c r="CR28" s="42"/>
+      <c r="CS28" s="42"/>
+      <c r="CT28" s="67"/>
+      <c r="CU28" s="73"/>
+      <c r="CV28" s="67"/>
     </row>
     <row r="29" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="68"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="104"/>
       <c r="E29" s="40">
         <v>44480</v>
       </c>
@@ -4889,224 +4937,220 @@
       <c r="G29" s="57">
         <v>0</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="103"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="103"/>
-      <c r="AA29" s="103"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="103"/>
-      <c r="AD29" s="103"/>
-      <c r="AE29" s="103"/>
-      <c r="AF29" s="103"/>
-      <c r="AG29" s="103"/>
-      <c r="AH29" s="103"/>
-      <c r="AI29" s="103"/>
-      <c r="AJ29" s="103"/>
-      <c r="AK29" s="103"/>
-      <c r="AL29" s="104"/>
-      <c r="AM29" s="21"/>
-      <c r="AN29" s="8"/>
-      <c r="AO29" s="8"/>
-      <c r="AP29" s="8"/>
-      <c r="AQ29" s="103"/>
-      <c r="AR29" s="103"/>
-      <c r="AS29" s="103"/>
-      <c r="AT29" s="103"/>
-      <c r="AU29" s="103"/>
-      <c r="AV29" s="103"/>
-      <c r="AW29" s="103"/>
-      <c r="AX29" s="103"/>
-      <c r="AY29" s="103"/>
-      <c r="AZ29" s="103"/>
-      <c r="BA29" s="103"/>
-      <c r="BB29" s="103"/>
-      <c r="BC29" s="103"/>
-      <c r="BD29" s="103"/>
-      <c r="BE29" s="24"/>
-      <c r="BF29" s="24"/>
-      <c r="BG29" s="24"/>
-      <c r="BH29" s="24"/>
-      <c r="BI29" s="24"/>
-      <c r="BJ29" s="24"/>
-      <c r="BK29" s="24"/>
-      <c r="BL29" s="24"/>
-      <c r="BM29" s="24"/>
-      <c r="BN29" s="24"/>
-      <c r="BO29" s="24"/>
-      <c r="BP29" s="104"/>
-      <c r="BQ29" s="109"/>
-      <c r="BR29" s="103"/>
-      <c r="BS29" s="103"/>
-      <c r="BT29" s="103"/>
-      <c r="BU29" s="103"/>
-      <c r="BV29" s="103"/>
-      <c r="BW29" s="103"/>
-      <c r="BX29" s="103"/>
-      <c r="BY29" s="103"/>
-      <c r="BZ29" s="103"/>
-      <c r="CA29" s="103"/>
-      <c r="CB29" s="103"/>
-      <c r="CC29" s="103"/>
-      <c r="CD29" s="103"/>
-      <c r="CE29" s="103"/>
-      <c r="CF29" s="103"/>
-      <c r="CG29" s="103"/>
-      <c r="CH29" s="103"/>
-      <c r="CI29" s="24"/>
-      <c r="CJ29" s="24"/>
-      <c r="CK29" s="24"/>
-      <c r="CL29" s="24"/>
-      <c r="CM29" s="24"/>
-      <c r="CN29" s="24"/>
-      <c r="CO29" s="24"/>
-      <c r="CP29" s="24"/>
-      <c r="CQ29" s="24"/>
-      <c r="CR29" s="24"/>
-      <c r="CS29" s="24"/>
-      <c r="CT29" s="104"/>
-      <c r="CU29" s="109"/>
-      <c r="CV29" s="104"/>
-    </row>
-    <row r="30" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
-      <c r="B30" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>102</v>
-      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="66"/>
+      <c r="AC29" s="66"/>
+      <c r="AD29" s="66"/>
+      <c r="AE29" s="66"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="66"/>
+      <c r="AL29" s="67"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="66"/>
+      <c r="AR29" s="66"/>
+      <c r="AS29" s="66"/>
+      <c r="AT29" s="66"/>
+      <c r="AU29" s="66"/>
+      <c r="AV29" s="66"/>
+      <c r="AW29" s="66"/>
+      <c r="AX29" s="66"/>
+      <c r="AY29" s="66"/>
+      <c r="AZ29" s="66"/>
+      <c r="BA29" s="66"/>
+      <c r="BB29" s="66"/>
+      <c r="BC29" s="66"/>
+      <c r="BD29" s="66"/>
+      <c r="BE29" s="42"/>
+      <c r="BF29" s="42"/>
+      <c r="BG29" s="42"/>
+      <c r="BH29" s="42"/>
+      <c r="BI29" s="42"/>
+      <c r="BJ29" s="42"/>
+      <c r="BK29" s="42"/>
+      <c r="BL29" s="42"/>
+      <c r="BM29" s="42"/>
+      <c r="BN29" s="42"/>
+      <c r="BO29" s="42"/>
+      <c r="BP29" s="67"/>
+      <c r="BQ29" s="73"/>
+      <c r="BR29" s="66"/>
+      <c r="BS29" s="66"/>
+      <c r="BT29" s="66"/>
+      <c r="BU29" s="66"/>
+      <c r="BV29" s="66"/>
+      <c r="BW29" s="66"/>
+      <c r="BX29" s="66"/>
+      <c r="BY29" s="66"/>
+      <c r="BZ29" s="66"/>
+      <c r="CA29" s="66"/>
+      <c r="CB29" s="66"/>
+      <c r="CC29" s="66"/>
+      <c r="CD29" s="66"/>
+      <c r="CE29" s="66"/>
+      <c r="CF29" s="66"/>
+      <c r="CG29" s="66"/>
+      <c r="CH29" s="66"/>
+      <c r="CI29" s="42"/>
+      <c r="CJ29" s="42"/>
+      <c r="CK29" s="42"/>
+      <c r="CL29" s="42"/>
+      <c r="CM29" s="42"/>
+      <c r="CN29" s="42"/>
+      <c r="CO29" s="42"/>
+      <c r="CP29" s="42"/>
+      <c r="CQ29" s="42"/>
+      <c r="CR29" s="42"/>
+      <c r="CS29" s="42"/>
+      <c r="CT29" s="67"/>
+      <c r="CU29" s="73"/>
+      <c r="CV29" s="67"/>
+    </row>
+    <row r="30" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="92"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="104"/>
       <c r="E30" s="40">
-        <v>44501</v>
+        <v>44480</v>
       </c>
       <c r="F30" s="40">
-        <v>44507</v>
+        <v>44499</v>
       </c>
       <c r="G30" s="57">
         <v>0</v>
       </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="103"/>
-      <c r="AB30" s="103"/>
-      <c r="AC30" s="103"/>
-      <c r="AD30" s="103"/>
-      <c r="AE30" s="103"/>
-      <c r="AF30" s="103"/>
-      <c r="AG30" s="103"/>
-      <c r="AH30" s="103"/>
-      <c r="AI30" s="103"/>
-      <c r="AJ30" s="103"/>
-      <c r="AK30" s="103"/>
-      <c r="AL30" s="104"/>
-      <c r="AM30" s="21"/>
-      <c r="AN30" s="8"/>
-      <c r="AO30" s="8"/>
-      <c r="AP30" s="8"/>
-      <c r="AQ30" s="103"/>
-      <c r="AR30" s="103"/>
-      <c r="AS30" s="103"/>
-      <c r="AT30" s="103"/>
-      <c r="AU30" s="103"/>
-      <c r="AV30" s="103"/>
-      <c r="AW30" s="103"/>
-      <c r="AX30" s="103"/>
-      <c r="AY30" s="103"/>
-      <c r="AZ30" s="103"/>
-      <c r="BA30" s="103"/>
-      <c r="BB30" s="103"/>
-      <c r="BC30" s="103"/>
-      <c r="BD30" s="103"/>
-      <c r="BE30" s="24"/>
-      <c r="BF30" s="24"/>
-      <c r="BG30" s="24"/>
-      <c r="BH30" s="24"/>
-      <c r="BI30" s="24"/>
-      <c r="BJ30" s="24"/>
-      <c r="BK30" s="24"/>
-      <c r="BL30" s="24"/>
-      <c r="BM30" s="24"/>
-      <c r="BN30" s="24"/>
-      <c r="BO30" s="24"/>
-      <c r="BP30" s="104"/>
-      <c r="BQ30" s="109"/>
-      <c r="BR30" s="103"/>
-      <c r="BS30" s="103"/>
-      <c r="BT30" s="103"/>
-      <c r="BU30" s="103"/>
-      <c r="BV30" s="103"/>
-      <c r="BW30" s="103"/>
-      <c r="BX30" s="103"/>
-      <c r="BY30" s="103"/>
-      <c r="BZ30" s="103"/>
-      <c r="CA30" s="103"/>
-      <c r="CB30" s="103"/>
-      <c r="CC30" s="103"/>
-      <c r="CD30" s="103"/>
-      <c r="CE30" s="103"/>
-      <c r="CF30" s="103"/>
-      <c r="CG30" s="103"/>
-      <c r="CH30" s="103"/>
-      <c r="CI30" s="24"/>
-      <c r="CJ30" s="24"/>
-      <c r="CK30" s="24"/>
-      <c r="CL30" s="24"/>
-      <c r="CM30" s="24"/>
-      <c r="CN30" s="24"/>
-      <c r="CO30" s="24"/>
-      <c r="CP30" s="24"/>
-      <c r="CQ30" s="24"/>
-      <c r="CR30" s="24"/>
-      <c r="CS30" s="24"/>
-      <c r="CT30" s="104"/>
-      <c r="CU30" s="109"/>
-      <c r="CV30" s="104"/>
-    </row>
-    <row r="31" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="84"/>
-      <c r="B31" s="65" t="s">
-        <v>81</v>
+      <c r="H30" s="20"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="66"/>
+      <c r="AD30" s="66"/>
+      <c r="AE30" s="66"/>
+      <c r="AF30" s="66"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="66"/>
+      <c r="AL30" s="67"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="66"/>
+      <c r="AR30" s="66"/>
+      <c r="AS30" s="66"/>
+      <c r="AT30" s="66"/>
+      <c r="AU30" s="66"/>
+      <c r="AV30" s="66"/>
+      <c r="AW30" s="66"/>
+      <c r="AX30" s="66"/>
+      <c r="AY30" s="66"/>
+      <c r="AZ30" s="66"/>
+      <c r="BA30" s="66"/>
+      <c r="BB30" s="66"/>
+      <c r="BC30" s="66"/>
+      <c r="BD30" s="66"/>
+      <c r="BE30" s="42"/>
+      <c r="BF30" s="42"/>
+      <c r="BG30" s="42"/>
+      <c r="BH30" s="42"/>
+      <c r="BI30" s="42"/>
+      <c r="BJ30" s="42"/>
+      <c r="BK30" s="42"/>
+      <c r="BL30" s="42"/>
+      <c r="BM30" s="42"/>
+      <c r="BN30" s="42"/>
+      <c r="BO30" s="42"/>
+      <c r="BP30" s="67"/>
+      <c r="BQ30" s="73"/>
+      <c r="BR30" s="66"/>
+      <c r="BS30" s="66"/>
+      <c r="BT30" s="66"/>
+      <c r="BU30" s="66"/>
+      <c r="BV30" s="66"/>
+      <c r="BW30" s="66"/>
+      <c r="BX30" s="66"/>
+      <c r="BY30" s="66"/>
+      <c r="BZ30" s="66"/>
+      <c r="CA30" s="66"/>
+      <c r="CB30" s="66"/>
+      <c r="CC30" s="66"/>
+      <c r="CD30" s="66"/>
+      <c r="CE30" s="66"/>
+      <c r="CF30" s="66"/>
+      <c r="CG30" s="66"/>
+      <c r="CH30" s="66"/>
+      <c r="CI30" s="42"/>
+      <c r="CJ30" s="42"/>
+      <c r="CK30" s="42"/>
+      <c r="CL30" s="42"/>
+      <c r="CM30" s="42"/>
+      <c r="CN30" s="42"/>
+      <c r="CO30" s="42"/>
+      <c r="CP30" s="42"/>
+      <c r="CQ30" s="42"/>
+      <c r="CR30" s="42"/>
+      <c r="CS30" s="42"/>
+      <c r="CT30" s="67"/>
+      <c r="CU30" s="73"/>
+      <c r="CV30" s="67"/>
+    </row>
+    <row r="31" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="92"/>
+      <c r="B31" s="94" t="s">
+        <v>83</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>103</v>
+        <v>93</v>
+      </c>
+      <c r="D31" s="94" t="s">
+        <v>104</v>
       </c>
       <c r="E31" s="40">
         <v>44480</v>
@@ -5118,54 +5162,54 @@
         <v>0</v>
       </c>
       <c r="H31" s="21"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="103"/>
-      <c r="Z31" s="103"/>
-      <c r="AA31" s="103"/>
-      <c r="AB31" s="103"/>
-      <c r="AC31" s="103"/>
-      <c r="AD31" s="103"/>
-      <c r="AE31" s="103"/>
-      <c r="AF31" s="103"/>
-      <c r="AG31" s="103"/>
-      <c r="AH31" s="103"/>
-      <c r="AI31" s="103"/>
-      <c r="AJ31" s="103"/>
-      <c r="AK31" s="103"/>
-      <c r="AL31" s="104"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="68"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="68"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="68"/>
+      <c r="AC31" s="68"/>
+      <c r="AD31" s="68"/>
+      <c r="AE31" s="68"/>
+      <c r="AF31" s="68"/>
+      <c r="AG31" s="68"/>
+      <c r="AH31" s="68"/>
+      <c r="AI31" s="68"/>
+      <c r="AJ31" s="68"/>
+      <c r="AK31" s="68"/>
+      <c r="AL31" s="69"/>
       <c r="AM31" s="21"/>
       <c r="AN31" s="8"/>
       <c r="AO31" s="8"/>
       <c r="AP31" s="8"/>
-      <c r="AQ31" s="103"/>
-      <c r="AR31" s="103"/>
-      <c r="AS31" s="103"/>
-      <c r="AT31" s="103"/>
-      <c r="AU31" s="103"/>
-      <c r="AV31" s="103"/>
-      <c r="AW31" s="103"/>
-      <c r="AX31" s="103"/>
-      <c r="AY31" s="103"/>
-      <c r="AZ31" s="103"/>
-      <c r="BA31" s="103"/>
-      <c r="BB31" s="103"/>
-      <c r="BC31" s="103"/>
-      <c r="BD31" s="103"/>
+      <c r="AQ31" s="68"/>
+      <c r="AR31" s="68"/>
+      <c r="AS31" s="68"/>
+      <c r="AT31" s="68"/>
+      <c r="AU31" s="68"/>
+      <c r="AV31" s="68"/>
+      <c r="AW31" s="68"/>
+      <c r="AX31" s="68"/>
+      <c r="AY31" s="68"/>
+      <c r="AZ31" s="68"/>
+      <c r="BA31" s="68"/>
+      <c r="BB31" s="68"/>
+      <c r="BC31" s="68"/>
+      <c r="BD31" s="68"/>
       <c r="BE31" s="24"/>
       <c r="BF31" s="24"/>
       <c r="BG31" s="24"/>
@@ -5177,25 +5221,25 @@
       <c r="BM31" s="24"/>
       <c r="BN31" s="24"/>
       <c r="BO31" s="24"/>
-      <c r="BP31" s="104"/>
-      <c r="BQ31" s="109"/>
-      <c r="BR31" s="103"/>
-      <c r="BS31" s="103"/>
-      <c r="BT31" s="103"/>
-      <c r="BU31" s="103"/>
-      <c r="BV31" s="103"/>
-      <c r="BW31" s="103"/>
-      <c r="BX31" s="103"/>
-      <c r="BY31" s="103"/>
-      <c r="BZ31" s="103"/>
-      <c r="CA31" s="103"/>
-      <c r="CB31" s="103"/>
-      <c r="CC31" s="103"/>
-      <c r="CD31" s="103"/>
-      <c r="CE31" s="103"/>
-      <c r="CF31" s="103"/>
-      <c r="CG31" s="103"/>
-      <c r="CH31" s="103"/>
+      <c r="BP31" s="69"/>
+      <c r="BQ31" s="74"/>
+      <c r="BR31" s="68"/>
+      <c r="BS31" s="68"/>
+      <c r="BT31" s="68"/>
+      <c r="BU31" s="68"/>
+      <c r="BV31" s="68"/>
+      <c r="BW31" s="68"/>
+      <c r="BX31" s="68"/>
+      <c r="BY31" s="68"/>
+      <c r="BZ31" s="68"/>
+      <c r="CA31" s="68"/>
+      <c r="CB31" s="68"/>
+      <c r="CC31" s="68"/>
+      <c r="CD31" s="68"/>
+      <c r="CE31" s="68"/>
+      <c r="CF31" s="68"/>
+      <c r="CG31" s="68"/>
+      <c r="CH31" s="68"/>
       <c r="CI31" s="24"/>
       <c r="CJ31" s="24"/>
       <c r="CK31" s="24"/>
@@ -5207,79 +5251,75 @@
       <c r="CQ31" s="24"/>
       <c r="CR31" s="24"/>
       <c r="CS31" s="24"/>
-      <c r="CT31" s="104"/>
-      <c r="CU31" s="109"/>
-      <c r="CV31" s="104"/>
-    </row>
-    <row r="32" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="117" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>101</v>
-      </c>
+      <c r="CT31" s="69"/>
+      <c r="CU31" s="74"/>
+      <c r="CV31" s="69"/>
+    </row>
+    <row r="32" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="92"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="103"/>
       <c r="E32" s="40">
-        <v>44522</v>
+        <v>44480</v>
       </c>
       <c r="F32" s="40">
-        <v>44527</v>
-      </c>
-      <c r="G32" s="57"/>
+        <v>44499</v>
+      </c>
+      <c r="G32" s="57">
+        <v>0</v>
+      </c>
       <c r="H32" s="21"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="103"/>
-      <c r="Y32" s="103"/>
-      <c r="Z32" s="103"/>
-      <c r="AA32" s="103"/>
-      <c r="AB32" s="103"/>
-      <c r="AC32" s="103"/>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="103"/>
-      <c r="AF32" s="103"/>
-      <c r="AG32" s="103"/>
-      <c r="AH32" s="103"/>
-      <c r="AI32" s="103"/>
-      <c r="AJ32" s="103"/>
-      <c r="AK32" s="103"/>
-      <c r="AL32" s="104"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="68"/>
+      <c r="AD32" s="68"/>
+      <c r="AE32" s="68"/>
+      <c r="AF32" s="68"/>
+      <c r="AG32" s="68"/>
+      <c r="AH32" s="68"/>
+      <c r="AI32" s="68"/>
+      <c r="AJ32" s="68"/>
+      <c r="AK32" s="68"/>
+      <c r="AL32" s="69"/>
       <c r="AM32" s="21"/>
       <c r="AN32" s="8"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="8"/>
-      <c r="AQ32" s="103"/>
-      <c r="AR32" s="103"/>
-      <c r="AS32" s="103"/>
-      <c r="AT32" s="103"/>
-      <c r="AU32" s="103"/>
-      <c r="AV32" s="103"/>
-      <c r="AW32" s="103"/>
-      <c r="AX32" s="103"/>
-      <c r="AY32" s="103"/>
-      <c r="AZ32" s="103"/>
-      <c r="BA32" s="103"/>
-      <c r="BB32" s="103"/>
-      <c r="BC32" s="103"/>
-      <c r="BD32" s="103"/>
+      <c r="AQ32" s="68"/>
+      <c r="AR32" s="68"/>
+      <c r="AS32" s="68"/>
+      <c r="AT32" s="68"/>
+      <c r="AU32" s="68"/>
+      <c r="AV32" s="68"/>
+      <c r="AW32" s="68"/>
+      <c r="AX32" s="68"/>
+      <c r="AY32" s="68"/>
+      <c r="AZ32" s="68"/>
+      <c r="BA32" s="68"/>
+      <c r="BB32" s="68"/>
+      <c r="BC32" s="68"/>
+      <c r="BD32" s="68"/>
       <c r="BE32" s="24"/>
       <c r="BF32" s="24"/>
       <c r="BG32" s="24"/>
@@ -5291,25 +5331,25 @@
       <c r="BM32" s="24"/>
       <c r="BN32" s="24"/>
       <c r="BO32" s="24"/>
-      <c r="BP32" s="104"/>
-      <c r="BQ32" s="109"/>
-      <c r="BR32" s="103"/>
-      <c r="BS32" s="103"/>
-      <c r="BT32" s="103"/>
-      <c r="BU32" s="103"/>
-      <c r="BV32" s="103"/>
-      <c r="BW32" s="103"/>
-      <c r="BX32" s="103"/>
-      <c r="BY32" s="103"/>
-      <c r="BZ32" s="103"/>
-      <c r="CA32" s="103"/>
-      <c r="CB32" s="103"/>
-      <c r="CC32" s="103"/>
-      <c r="CD32" s="103"/>
-      <c r="CE32" s="103"/>
-      <c r="CF32" s="103"/>
-      <c r="CG32" s="103"/>
-      <c r="CH32" s="103"/>
+      <c r="BP32" s="69"/>
+      <c r="BQ32" s="74"/>
+      <c r="BR32" s="68"/>
+      <c r="BS32" s="68"/>
+      <c r="BT32" s="68"/>
+      <c r="BU32" s="68"/>
+      <c r="BV32" s="68"/>
+      <c r="BW32" s="68"/>
+      <c r="BX32" s="68"/>
+      <c r="BY32" s="68"/>
+      <c r="BZ32" s="68"/>
+      <c r="CA32" s="68"/>
+      <c r="CB32" s="68"/>
+      <c r="CC32" s="68"/>
+      <c r="CD32" s="68"/>
+      <c r="CE32" s="68"/>
+      <c r="CF32" s="68"/>
+      <c r="CG32" s="68"/>
+      <c r="CH32" s="68"/>
       <c r="CI32" s="24"/>
       <c r="CJ32" s="24"/>
       <c r="CK32" s="24"/>
@@ -5321,914 +5361,1366 @@
       <c r="CQ32" s="24"/>
       <c r="CR32" s="24"/>
       <c r="CS32" s="24"/>
-      <c r="CT32" s="104"/>
-      <c r="CU32" s="109"/>
-      <c r="CV32" s="104"/>
-    </row>
-    <row r="33" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="118"/>
-      <c r="B33" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>104</v>
-      </c>
+      <c r="CT32" s="69"/>
+      <c r="CU32" s="74"/>
+      <c r="CV32" s="69"/>
+    </row>
+    <row r="33" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="92"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="95"/>
       <c r="E33" s="40">
         <v>44480</v>
       </c>
       <c r="F33" s="40">
-        <v>44501</v>
+        <v>44499</v>
       </c>
       <c r="G33" s="57">
         <v>0</v>
       </c>
       <c r="H33" s="21"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="103"/>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="103"/>
-      <c r="AF33" s="103"/>
-      <c r="AG33" s="103"/>
-      <c r="AH33" s="103"/>
-      <c r="AI33" s="103"/>
-      <c r="AJ33" s="103"/>
-      <c r="AK33" s="103"/>
-      <c r="AL33" s="104"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="68"/>
+      <c r="AF33" s="68"/>
+      <c r="AG33" s="68"/>
+      <c r="AH33" s="68"/>
+      <c r="AI33" s="68"/>
+      <c r="AJ33" s="68"/>
+      <c r="AK33" s="68"/>
+      <c r="AL33" s="69"/>
       <c r="AM33" s="21"/>
       <c r="AN33" s="8"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
-      <c r="AQ33" s="103"/>
-      <c r="AR33" s="103"/>
-      <c r="AS33" s="103"/>
-      <c r="AT33" s="103"/>
-      <c r="AU33" s="103"/>
-      <c r="AV33" s="103"/>
-      <c r="AW33" s="103"/>
-      <c r="AX33" s="103"/>
-      <c r="AY33" s="103"/>
-      <c r="AZ33" s="103"/>
-      <c r="BA33" s="103"/>
-      <c r="BB33" s="103"/>
-      <c r="BC33" s="103"/>
-      <c r="BD33" s="103"/>
-      <c r="BE33" s="103"/>
-      <c r="BF33" s="103"/>
-      <c r="BG33" s="103"/>
-      <c r="BH33" s="103"/>
-      <c r="BI33" s="103"/>
-      <c r="BJ33" s="103"/>
-      <c r="BK33" s="103"/>
-      <c r="BL33" s="103"/>
-      <c r="BM33" s="103"/>
-      <c r="BN33" s="103"/>
-      <c r="BO33" s="103"/>
-      <c r="BP33" s="104"/>
-      <c r="BQ33" s="109"/>
-      <c r="BR33" s="103"/>
-      <c r="BS33" s="103"/>
-      <c r="BT33" s="103"/>
-      <c r="BU33" s="103"/>
-      <c r="BV33" s="103"/>
-      <c r="BW33" s="103"/>
-      <c r="BX33" s="103"/>
-      <c r="BY33" s="103"/>
-      <c r="BZ33" s="103"/>
-      <c r="CA33" s="103"/>
-      <c r="CB33" s="103"/>
-      <c r="CC33" s="103"/>
-      <c r="CD33" s="103"/>
-      <c r="CE33" s="103"/>
-      <c r="CF33" s="103"/>
-      <c r="CG33" s="103"/>
-      <c r="CH33" s="103"/>
-      <c r="CI33" s="103"/>
-      <c r="CJ33" s="103"/>
-      <c r="CK33" s="103"/>
-      <c r="CL33" s="103"/>
-      <c r="CM33" s="103"/>
-      <c r="CN33" s="103"/>
-      <c r="CO33" s="103"/>
-      <c r="CP33" s="103"/>
-      <c r="CQ33" s="103"/>
-      <c r="CR33" s="103"/>
-      <c r="CS33" s="103"/>
-      <c r="CT33" s="104"/>
-      <c r="CU33" s="109"/>
-      <c r="CV33" s="104"/>
-    </row>
-    <row r="34" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="118"/>
-      <c r="B34" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="89" t="s">
-        <v>105</v>
+      <c r="AQ33" s="68"/>
+      <c r="AR33" s="68"/>
+      <c r="AS33" s="68"/>
+      <c r="AT33" s="68"/>
+      <c r="AU33" s="68"/>
+      <c r="AV33" s="68"/>
+      <c r="AW33" s="68"/>
+      <c r="AX33" s="68"/>
+      <c r="AY33" s="68"/>
+      <c r="AZ33" s="68"/>
+      <c r="BA33" s="68"/>
+      <c r="BB33" s="68"/>
+      <c r="BC33" s="68"/>
+      <c r="BD33" s="68"/>
+      <c r="BE33" s="24"/>
+      <c r="BF33" s="24"/>
+      <c r="BG33" s="24"/>
+      <c r="BH33" s="24"/>
+      <c r="BI33" s="24"/>
+      <c r="BJ33" s="24"/>
+      <c r="BK33" s="24"/>
+      <c r="BL33" s="24"/>
+      <c r="BM33" s="24"/>
+      <c r="BN33" s="24"/>
+      <c r="BO33" s="24"/>
+      <c r="BP33" s="69"/>
+      <c r="BQ33" s="74"/>
+      <c r="BR33" s="68"/>
+      <c r="BS33" s="68"/>
+      <c r="BT33" s="68"/>
+      <c r="BU33" s="68"/>
+      <c r="BV33" s="68"/>
+      <c r="BW33" s="68"/>
+      <c r="BX33" s="68"/>
+      <c r="BY33" s="68"/>
+      <c r="BZ33" s="68"/>
+      <c r="CA33" s="68"/>
+      <c r="CB33" s="68"/>
+      <c r="CC33" s="68"/>
+      <c r="CD33" s="68"/>
+      <c r="CE33" s="68"/>
+      <c r="CF33" s="68"/>
+      <c r="CG33" s="68"/>
+      <c r="CH33" s="68"/>
+      <c r="CI33" s="24"/>
+      <c r="CJ33" s="24"/>
+      <c r="CK33" s="24"/>
+      <c r="CL33" s="24"/>
+      <c r="CM33" s="24"/>
+      <c r="CN33" s="24"/>
+      <c r="CO33" s="24"/>
+      <c r="CP33" s="24"/>
+      <c r="CQ33" s="24"/>
+      <c r="CR33" s="24"/>
+      <c r="CS33" s="24"/>
+      <c r="CT33" s="69"/>
+      <c r="CU33" s="74"/>
+      <c r="CV33" s="69"/>
+    </row>
+    <row r="34" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="92"/>
+      <c r="B34" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="E34" s="40">
-        <v>44484</v>
+        <v>44501</v>
       </c>
       <c r="F34" s="40">
-        <v>44492</v>
+        <v>44507</v>
       </c>
       <c r="G34" s="57">
         <v>0</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="101"/>
-      <c r="U34" s="101"/>
-      <c r="V34" s="101"/>
-      <c r="W34" s="101"/>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="101"/>
-      <c r="Z34" s="101"/>
-      <c r="AA34" s="101"/>
-      <c r="AB34" s="101"/>
-      <c r="AC34" s="101"/>
-      <c r="AD34" s="101"/>
-      <c r="AE34" s="101"/>
-      <c r="AF34" s="101"/>
-      <c r="AG34" s="101"/>
-      <c r="AH34" s="101"/>
-      <c r="AI34" s="101"/>
-      <c r="AJ34" s="101"/>
-      <c r="AK34" s="101"/>
-      <c r="AL34" s="102"/>
-      <c r="AM34" s="20"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="101"/>
-      <c r="AR34" s="101"/>
-      <c r="AS34" s="101"/>
-      <c r="AT34" s="101"/>
-      <c r="AU34" s="101"/>
-      <c r="AV34" s="101"/>
-      <c r="AW34" s="101"/>
-      <c r="AX34" s="101"/>
-      <c r="AY34" s="101"/>
-      <c r="AZ34" s="101"/>
-      <c r="BA34" s="101"/>
-      <c r="BB34" s="101"/>
-      <c r="BC34" s="101"/>
-      <c r="BD34" s="101"/>
-      <c r="BE34" s="101"/>
-      <c r="BF34" s="101"/>
-      <c r="BG34" s="101"/>
-      <c r="BH34" s="101"/>
-      <c r="BI34" s="101"/>
-      <c r="BJ34" s="101"/>
-      <c r="BK34" s="101"/>
-      <c r="BL34" s="101"/>
-      <c r="BM34" s="101"/>
-      <c r="BN34" s="101"/>
-      <c r="BO34" s="101"/>
-      <c r="BP34" s="102"/>
-      <c r="BQ34" s="108"/>
-      <c r="BR34" s="101"/>
-      <c r="BS34" s="101"/>
-      <c r="BT34" s="101"/>
-      <c r="BU34" s="101"/>
-      <c r="BV34" s="101"/>
-      <c r="BW34" s="101"/>
-      <c r="BX34" s="101"/>
-      <c r="BY34" s="101"/>
-      <c r="BZ34" s="101"/>
-      <c r="CA34" s="101"/>
-      <c r="CB34" s="101"/>
-      <c r="CC34" s="101"/>
-      <c r="CD34" s="101"/>
-      <c r="CE34" s="101"/>
-      <c r="CF34" s="101"/>
-      <c r="CG34" s="101"/>
-      <c r="CH34" s="101"/>
-      <c r="CI34" s="101"/>
-      <c r="CJ34" s="101"/>
-      <c r="CK34" s="101"/>
-      <c r="CL34" s="101"/>
-      <c r="CM34" s="101"/>
-      <c r="CN34" s="101"/>
-      <c r="CO34" s="101"/>
-      <c r="CP34" s="101"/>
-      <c r="CQ34" s="101"/>
-      <c r="CR34" s="101"/>
-      <c r="CS34" s="101"/>
-      <c r="CT34" s="102"/>
-      <c r="CU34" s="108"/>
-      <c r="CV34" s="102"/>
-    </row>
-    <row r="35" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="118"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="90"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="68"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="68"/>
+      <c r="AI34" s="68"/>
+      <c r="AJ34" s="68"/>
+      <c r="AK34" s="68"/>
+      <c r="AL34" s="69"/>
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="8"/>
+      <c r="AO34" s="8"/>
+      <c r="AP34" s="8"/>
+      <c r="AQ34" s="68"/>
+      <c r="AR34" s="68"/>
+      <c r="AS34" s="68"/>
+      <c r="AT34" s="68"/>
+      <c r="AU34" s="68"/>
+      <c r="AV34" s="68"/>
+      <c r="AW34" s="68"/>
+      <c r="AX34" s="68"/>
+      <c r="AY34" s="68"/>
+      <c r="AZ34" s="68"/>
+      <c r="BA34" s="68"/>
+      <c r="BB34" s="68"/>
+      <c r="BC34" s="68"/>
+      <c r="BD34" s="68"/>
+      <c r="BE34" s="24"/>
+      <c r="BF34" s="24"/>
+      <c r="BG34" s="24"/>
+      <c r="BH34" s="24"/>
+      <c r="BI34" s="24"/>
+      <c r="BJ34" s="24"/>
+      <c r="BK34" s="24"/>
+      <c r="BL34" s="24"/>
+      <c r="BM34" s="24"/>
+      <c r="BN34" s="24"/>
+      <c r="BO34" s="24"/>
+      <c r="BP34" s="69"/>
+      <c r="BQ34" s="74"/>
+      <c r="BR34" s="68"/>
+      <c r="BS34" s="68"/>
+      <c r="BT34" s="68"/>
+      <c r="BU34" s="68"/>
+      <c r="BV34" s="68"/>
+      <c r="BW34" s="68"/>
+      <c r="BX34" s="68"/>
+      <c r="BY34" s="68"/>
+      <c r="BZ34" s="68"/>
+      <c r="CA34" s="68"/>
+      <c r="CB34" s="68"/>
+      <c r="CC34" s="68"/>
+      <c r="CD34" s="68"/>
+      <c r="CE34" s="68"/>
+      <c r="CF34" s="68"/>
+      <c r="CG34" s="68"/>
+      <c r="CH34" s="68"/>
+      <c r="CI34" s="24"/>
+      <c r="CJ34" s="24"/>
+      <c r="CK34" s="24"/>
+      <c r="CL34" s="24"/>
+      <c r="CM34" s="24"/>
+      <c r="CN34" s="24"/>
+      <c r="CO34" s="24"/>
+      <c r="CP34" s="24"/>
+      <c r="CQ34" s="24"/>
+      <c r="CR34" s="24"/>
+      <c r="CS34" s="24"/>
+      <c r="CT34" s="69"/>
+      <c r="CU34" s="74"/>
+      <c r="CV34" s="69"/>
+    </row>
+    <row r="35" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="93"/>
+      <c r="B35" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="E35" s="40">
-        <v>44501</v>
+        <v>44480</v>
       </c>
       <c r="F35" s="40">
-        <v>44507</v>
+        <v>44499</v>
       </c>
       <c r="G35" s="57">
         <v>0</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
-      <c r="S35" s="101"/>
-      <c r="T35" s="101"/>
-      <c r="U35" s="101"/>
-      <c r="V35" s="101"/>
-      <c r="W35" s="101"/>
-      <c r="X35" s="101"/>
-      <c r="Y35" s="101"/>
-      <c r="Z35" s="101"/>
-      <c r="AA35" s="101"/>
-      <c r="AB35" s="101"/>
-      <c r="AC35" s="101"/>
-      <c r="AD35" s="101"/>
-      <c r="AE35" s="101"/>
-      <c r="AF35" s="101"/>
-      <c r="AG35" s="101"/>
-      <c r="AH35" s="101"/>
-      <c r="AI35" s="101"/>
-      <c r="AJ35" s="101"/>
-      <c r="AK35" s="101"/>
-      <c r="AL35" s="102"/>
-      <c r="AM35" s="20"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="101"/>
-      <c r="AR35" s="101"/>
-      <c r="AS35" s="101"/>
-      <c r="AT35" s="101"/>
-      <c r="AU35" s="101"/>
-      <c r="AV35" s="101"/>
-      <c r="AW35" s="101"/>
-      <c r="AX35" s="101"/>
-      <c r="AY35" s="101"/>
-      <c r="AZ35" s="101"/>
-      <c r="BA35" s="101"/>
-      <c r="BB35" s="101"/>
-      <c r="BC35" s="101"/>
-      <c r="BD35" s="101"/>
-      <c r="BE35" s="101"/>
-      <c r="BF35" s="101"/>
-      <c r="BG35" s="101"/>
-      <c r="BH35" s="101"/>
-      <c r="BI35" s="101"/>
-      <c r="BJ35" s="101"/>
-      <c r="BK35" s="101"/>
-      <c r="BL35" s="101"/>
-      <c r="BM35" s="101"/>
-      <c r="BN35" s="101"/>
-      <c r="BO35" s="101"/>
-      <c r="BP35" s="102"/>
-      <c r="BQ35" s="108"/>
-      <c r="BR35" s="101"/>
-      <c r="BS35" s="101"/>
-      <c r="BT35" s="101"/>
-      <c r="BU35" s="101"/>
-      <c r="BV35" s="101"/>
-      <c r="BW35" s="101"/>
-      <c r="BX35" s="101"/>
-      <c r="BY35" s="101"/>
-      <c r="BZ35" s="101"/>
-      <c r="CA35" s="101"/>
-      <c r="CB35" s="101"/>
-      <c r="CC35" s="101"/>
-      <c r="CD35" s="101"/>
-      <c r="CE35" s="101"/>
-      <c r="CF35" s="101"/>
-      <c r="CG35" s="101"/>
-      <c r="CH35" s="101"/>
-      <c r="CI35" s="101"/>
-      <c r="CJ35" s="101"/>
-      <c r="CK35" s="101"/>
-      <c r="CL35" s="101"/>
-      <c r="CM35" s="101"/>
-      <c r="CN35" s="101"/>
-      <c r="CO35" s="101"/>
-      <c r="CP35" s="101"/>
-      <c r="CQ35" s="101"/>
-      <c r="CR35" s="101"/>
-      <c r="CS35" s="101"/>
-      <c r="CT35" s="102"/>
-      <c r="CU35" s="108"/>
-      <c r="CV35" s="102"/>
-    </row>
-    <row r="36" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="118"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="90"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="68"/>
+      <c r="AC35" s="68"/>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="68"/>
+      <c r="AF35" s="68"/>
+      <c r="AG35" s="68"/>
+      <c r="AH35" s="68"/>
+      <c r="AI35" s="68"/>
+      <c r="AJ35" s="68"/>
+      <c r="AK35" s="68"/>
+      <c r="AL35" s="69"/>
+      <c r="AM35" s="21"/>
+      <c r="AN35" s="8"/>
+      <c r="AO35" s="8"/>
+      <c r="AP35" s="8"/>
+      <c r="AQ35" s="68"/>
+      <c r="AR35" s="68"/>
+      <c r="AS35" s="68"/>
+      <c r="AT35" s="68"/>
+      <c r="AU35" s="68"/>
+      <c r="AV35" s="68"/>
+      <c r="AW35" s="68"/>
+      <c r="AX35" s="68"/>
+      <c r="AY35" s="68"/>
+      <c r="AZ35" s="68"/>
+      <c r="BA35" s="68"/>
+      <c r="BB35" s="68"/>
+      <c r="BC35" s="68"/>
+      <c r="BD35" s="68"/>
+      <c r="BE35" s="24"/>
+      <c r="BF35" s="24"/>
+      <c r="BG35" s="24"/>
+      <c r="BH35" s="24"/>
+      <c r="BI35" s="24"/>
+      <c r="BJ35" s="24"/>
+      <c r="BK35" s="24"/>
+      <c r="BL35" s="24"/>
+      <c r="BM35" s="24"/>
+      <c r="BN35" s="24"/>
+      <c r="BO35" s="24"/>
+      <c r="BP35" s="69"/>
+      <c r="BQ35" s="74"/>
+      <c r="BR35" s="68"/>
+      <c r="BS35" s="68"/>
+      <c r="BT35" s="68"/>
+      <c r="BU35" s="68"/>
+      <c r="BV35" s="68"/>
+      <c r="BW35" s="68"/>
+      <c r="BX35" s="68"/>
+      <c r="BY35" s="68"/>
+      <c r="BZ35" s="68"/>
+      <c r="CA35" s="68"/>
+      <c r="CB35" s="68"/>
+      <c r="CC35" s="68"/>
+      <c r="CD35" s="68"/>
+      <c r="CE35" s="68"/>
+      <c r="CF35" s="68"/>
+      <c r="CG35" s="68"/>
+      <c r="CH35" s="68"/>
+      <c r="CI35" s="24"/>
+      <c r="CJ35" s="24"/>
+      <c r="CK35" s="24"/>
+      <c r="CL35" s="24"/>
+      <c r="CM35" s="24"/>
+      <c r="CN35" s="24"/>
+      <c r="CO35" s="24"/>
+      <c r="CP35" s="24"/>
+      <c r="CQ35" s="24"/>
+      <c r="CR35" s="24"/>
+      <c r="CS35" s="24"/>
+      <c r="CT35" s="69"/>
+      <c r="CU35" s="74"/>
+      <c r="CV35" s="69"/>
+    </row>
+    <row r="36" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>101</v>
+      </c>
       <c r="E36" s="40">
-        <v>44507</v>
+        <v>44522</v>
       </c>
       <c r="F36" s="40">
-        <v>44515</v>
-      </c>
-      <c r="G36" s="57">
-        <v>0</v>
-      </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="101"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="101"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="101"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="101"/>
-      <c r="W36" s="101"/>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="101"/>
-      <c r="Z36" s="101"/>
-      <c r="AA36" s="101"/>
-      <c r="AB36" s="101"/>
-      <c r="AC36" s="101"/>
-      <c r="AD36" s="101"/>
-      <c r="AE36" s="101"/>
-      <c r="AF36" s="101"/>
-      <c r="AG36" s="101"/>
-      <c r="AH36" s="101"/>
-      <c r="AI36" s="101"/>
-      <c r="AJ36" s="101"/>
-      <c r="AK36" s="101"/>
-      <c r="AL36" s="102"/>
-      <c r="AM36" s="20"/>
-      <c r="AN36" s="3"/>
-      <c r="AO36" s="3"/>
-      <c r="AP36" s="3"/>
-      <c r="AQ36" s="101"/>
-      <c r="AR36" s="101"/>
-      <c r="AS36" s="101"/>
-      <c r="AT36" s="101"/>
-      <c r="AU36" s="101"/>
-      <c r="AV36" s="101"/>
-      <c r="AW36" s="101"/>
-      <c r="AX36" s="101"/>
-      <c r="AY36" s="101"/>
-      <c r="AZ36" s="101"/>
-      <c r="BA36" s="101"/>
-      <c r="BB36" s="101"/>
-      <c r="BC36" s="101"/>
-      <c r="BD36" s="101"/>
-      <c r="BE36" s="101"/>
-      <c r="BF36" s="101"/>
-      <c r="BG36" s="101"/>
-      <c r="BH36" s="101"/>
-      <c r="BI36" s="101"/>
-      <c r="BJ36" s="101"/>
-      <c r="BK36" s="101"/>
-      <c r="BL36" s="101"/>
-      <c r="BM36" s="101"/>
-      <c r="BN36" s="101"/>
-      <c r="BO36" s="101"/>
-      <c r="BP36" s="102"/>
-      <c r="BQ36" s="108"/>
-      <c r="BR36" s="101"/>
-      <c r="BS36" s="101"/>
-      <c r="BT36" s="101"/>
-      <c r="BU36" s="101"/>
-      <c r="BV36" s="101"/>
-      <c r="BW36" s="101"/>
-      <c r="BX36" s="101"/>
-      <c r="BY36" s="101"/>
-      <c r="BZ36" s="101"/>
-      <c r="CA36" s="101"/>
-      <c r="CB36" s="101"/>
-      <c r="CC36" s="101"/>
-      <c r="CD36" s="101"/>
-      <c r="CE36" s="101"/>
-      <c r="CF36" s="101"/>
-      <c r="CG36" s="101"/>
-      <c r="CH36" s="101"/>
-      <c r="CI36" s="101"/>
-      <c r="CJ36" s="101"/>
-      <c r="CK36" s="101"/>
-      <c r="CL36" s="101"/>
-      <c r="CM36" s="101"/>
-      <c r="CN36" s="101"/>
-      <c r="CO36" s="101"/>
-      <c r="CP36" s="101"/>
-      <c r="CQ36" s="101"/>
-      <c r="CR36" s="101"/>
-      <c r="CS36" s="101"/>
-      <c r="CT36" s="102"/>
-      <c r="CU36" s="108"/>
-      <c r="CV36" s="102"/>
+        <v>44527</v>
+      </c>
+      <c r="G36" s="57"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68"/>
+      <c r="AE36" s="68"/>
+      <c r="AF36" s="68"/>
+      <c r="AG36" s="68"/>
+      <c r="AH36" s="68"/>
+      <c r="AI36" s="68"/>
+      <c r="AJ36" s="68"/>
+      <c r="AK36" s="68"/>
+      <c r="AL36" s="69"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+      <c r="AP36" s="8"/>
+      <c r="AQ36" s="68"/>
+      <c r="AR36" s="68"/>
+      <c r="AS36" s="68"/>
+      <c r="AT36" s="68"/>
+      <c r="AU36" s="68"/>
+      <c r="AV36" s="68"/>
+      <c r="AW36" s="68"/>
+      <c r="AX36" s="68"/>
+      <c r="AY36" s="68"/>
+      <c r="AZ36" s="68"/>
+      <c r="BA36" s="68"/>
+      <c r="BB36" s="68"/>
+      <c r="BC36" s="68"/>
+      <c r="BD36" s="68"/>
+      <c r="BE36" s="24"/>
+      <c r="BF36" s="24"/>
+      <c r="BG36" s="24"/>
+      <c r="BH36" s="24"/>
+      <c r="BI36" s="24"/>
+      <c r="BJ36" s="24"/>
+      <c r="BK36" s="24"/>
+      <c r="BL36" s="24"/>
+      <c r="BM36" s="24"/>
+      <c r="BN36" s="24"/>
+      <c r="BO36" s="24"/>
+      <c r="BP36" s="69"/>
+      <c r="BQ36" s="74"/>
+      <c r="BR36" s="68"/>
+      <c r="BS36" s="68"/>
+      <c r="BT36" s="68"/>
+      <c r="BU36" s="68"/>
+      <c r="BV36" s="68"/>
+      <c r="BW36" s="68"/>
+      <c r="BX36" s="68"/>
+      <c r="BY36" s="68"/>
+      <c r="BZ36" s="68"/>
+      <c r="CA36" s="68"/>
+      <c r="CB36" s="68"/>
+      <c r="CC36" s="68"/>
+      <c r="CD36" s="68"/>
+      <c r="CE36" s="68"/>
+      <c r="CF36" s="68"/>
+      <c r="CG36" s="68"/>
+      <c r="CH36" s="68"/>
+      <c r="CI36" s="24"/>
+      <c r="CJ36" s="24"/>
+      <c r="CK36" s="24"/>
+      <c r="CL36" s="24"/>
+      <c r="CM36" s="24"/>
+      <c r="CN36" s="24"/>
+      <c r="CO36" s="24"/>
+      <c r="CP36" s="24"/>
+      <c r="CQ36" s="24"/>
+      <c r="CR36" s="24"/>
+      <c r="CS36" s="24"/>
+      <c r="CT36" s="69"/>
+      <c r="CU36" s="74"/>
+      <c r="CV36" s="69"/>
     </row>
     <row r="37" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="79"/>
-      <c r="B37" s="91"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="49" t="s">
+        <v>72</v>
+      </c>
       <c r="C37" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="91"/>
+        <v>16</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="E37" s="40">
-        <v>44515</v>
+        <v>44480</v>
       </c>
       <c r="F37" s="40">
-        <v>44521</v>
+        <v>44501</v>
       </c>
       <c r="G37" s="57">
         <v>0</v>
       </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="101"/>
-      <c r="U37" s="101"/>
-      <c r="V37" s="101"/>
-      <c r="W37" s="101"/>
-      <c r="X37" s="101"/>
-      <c r="Y37" s="101"/>
-      <c r="Z37" s="101"/>
-      <c r="AA37" s="101"/>
-      <c r="AB37" s="101"/>
-      <c r="AC37" s="101"/>
-      <c r="AD37" s="101"/>
-      <c r="AE37" s="101"/>
-      <c r="AF37" s="101"/>
-      <c r="AG37" s="101"/>
-      <c r="AH37" s="101"/>
-      <c r="AI37" s="101"/>
-      <c r="AJ37" s="101"/>
-      <c r="AK37" s="101"/>
-      <c r="AL37" s="102"/>
-      <c r="AM37" s="20"/>
-      <c r="AN37" s="3"/>
-      <c r="AO37" s="3"/>
-      <c r="AP37" s="3"/>
-      <c r="AQ37" s="101"/>
-      <c r="AR37" s="101"/>
-      <c r="AS37" s="101"/>
-      <c r="AT37" s="101"/>
-      <c r="AU37" s="101"/>
-      <c r="AV37" s="101"/>
-      <c r="AW37" s="101"/>
-      <c r="AX37" s="101"/>
-      <c r="AY37" s="101"/>
-      <c r="AZ37" s="101"/>
-      <c r="BA37" s="101"/>
-      <c r="BB37" s="101"/>
-      <c r="BC37" s="101"/>
-      <c r="BD37" s="101"/>
-      <c r="BE37" s="101"/>
-      <c r="BF37" s="101"/>
-      <c r="BG37" s="101"/>
-      <c r="BH37" s="101"/>
-      <c r="BI37" s="101"/>
-      <c r="BJ37" s="101"/>
-      <c r="BK37" s="101"/>
-      <c r="BL37" s="101"/>
-      <c r="BM37" s="101"/>
-      <c r="BN37" s="101"/>
-      <c r="BO37" s="101"/>
-      <c r="BP37" s="102"/>
-      <c r="BQ37" s="108"/>
-      <c r="BR37" s="101"/>
-      <c r="BS37" s="101"/>
-      <c r="BT37" s="101"/>
-      <c r="BU37" s="101"/>
-      <c r="BV37" s="101"/>
-      <c r="BW37" s="101"/>
-      <c r="BX37" s="101"/>
-      <c r="BY37" s="101"/>
-      <c r="BZ37" s="101"/>
-      <c r="CA37" s="101"/>
-      <c r="CB37" s="101"/>
-      <c r="CC37" s="101"/>
-      <c r="CD37" s="101"/>
-      <c r="CE37" s="101"/>
-      <c r="CF37" s="101"/>
-      <c r="CG37" s="101"/>
-      <c r="CH37" s="101"/>
-      <c r="CI37" s="101"/>
-      <c r="CJ37" s="101"/>
-      <c r="CK37" s="101"/>
-      <c r="CL37" s="101"/>
-      <c r="CM37" s="101"/>
-      <c r="CN37" s="101"/>
-      <c r="CO37" s="101"/>
-      <c r="CP37" s="101"/>
-      <c r="CQ37" s="101"/>
-      <c r="CR37" s="101"/>
-      <c r="CS37" s="101"/>
-      <c r="CT37" s="102"/>
-      <c r="CU37" s="108"/>
-      <c r="CV37" s="102"/>
-    </row>
-    <row r="38" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>101</v>
+      <c r="H37" s="21"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="68"/>
+      <c r="AF37" s="68"/>
+      <c r="AG37" s="68"/>
+      <c r="AH37" s="68"/>
+      <c r="AI37" s="68"/>
+      <c r="AJ37" s="68"/>
+      <c r="AK37" s="68"/>
+      <c r="AL37" s="69"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="8"/>
+      <c r="AQ37" s="68"/>
+      <c r="AR37" s="68"/>
+      <c r="AS37" s="68"/>
+      <c r="AT37" s="68"/>
+      <c r="AU37" s="68"/>
+      <c r="AV37" s="68"/>
+      <c r="AW37" s="68"/>
+      <c r="AX37" s="68"/>
+      <c r="AY37" s="68"/>
+      <c r="AZ37" s="68"/>
+      <c r="BA37" s="68"/>
+      <c r="BB37" s="68"/>
+      <c r="BC37" s="68"/>
+      <c r="BD37" s="68"/>
+      <c r="BE37" s="68"/>
+      <c r="BF37" s="68"/>
+      <c r="BG37" s="68"/>
+      <c r="BH37" s="68"/>
+      <c r="BI37" s="68"/>
+      <c r="BJ37" s="68"/>
+      <c r="BK37" s="68"/>
+      <c r="BL37" s="68"/>
+      <c r="BM37" s="68"/>
+      <c r="BN37" s="68"/>
+      <c r="BO37" s="68"/>
+      <c r="BP37" s="69"/>
+      <c r="BQ37" s="74"/>
+      <c r="BR37" s="68"/>
+      <c r="BS37" s="68"/>
+      <c r="BT37" s="68"/>
+      <c r="BU37" s="68"/>
+      <c r="BV37" s="68"/>
+      <c r="BW37" s="68"/>
+      <c r="BX37" s="68"/>
+      <c r="BY37" s="68"/>
+      <c r="BZ37" s="68"/>
+      <c r="CA37" s="68"/>
+      <c r="CB37" s="68"/>
+      <c r="CC37" s="68"/>
+      <c r="CD37" s="68"/>
+      <c r="CE37" s="68"/>
+      <c r="CF37" s="68"/>
+      <c r="CG37" s="68"/>
+      <c r="CH37" s="68"/>
+      <c r="CI37" s="68"/>
+      <c r="CJ37" s="68"/>
+      <c r="CK37" s="68"/>
+      <c r="CL37" s="68"/>
+      <c r="CM37" s="68"/>
+      <c r="CN37" s="68"/>
+      <c r="CO37" s="68"/>
+      <c r="CP37" s="68"/>
+      <c r="CQ37" s="68"/>
+      <c r="CR37" s="68"/>
+      <c r="CS37" s="68"/>
+      <c r="CT37" s="69"/>
+      <c r="CU37" s="74"/>
+      <c r="CV37" s="69"/>
+    </row>
+    <row r="38" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="114"/>
+      <c r="B38" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="110" t="s">
+        <v>105</v>
       </c>
       <c r="E38" s="40">
-        <v>44521</v>
+        <v>44484</v>
       </c>
       <c r="F38" s="40">
-        <v>44527</v>
+        <v>44492</v>
       </c>
       <c r="G38" s="57">
         <v>0</v>
       </c>
       <c r="H38" s="20"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="101"/>
-      <c r="T38" s="101"/>
-      <c r="U38" s="101"/>
-      <c r="V38" s="101"/>
-      <c r="W38" s="101"/>
-      <c r="X38" s="101"/>
-      <c r="Y38" s="101"/>
-      <c r="Z38" s="101"/>
-      <c r="AA38" s="101"/>
-      <c r="AB38" s="101"/>
-      <c r="AC38" s="101"/>
-      <c r="AD38" s="101"/>
-      <c r="AE38" s="101"/>
-      <c r="AF38" s="101"/>
-      <c r="AG38" s="101"/>
-      <c r="AH38" s="101"/>
-      <c r="AI38" s="101"/>
-      <c r="AJ38" s="101"/>
-      <c r="AK38" s="101"/>
-      <c r="AL38" s="102"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="66"/>
+      <c r="AK38" s="66"/>
+      <c r="AL38" s="67"/>
       <c r="AM38" s="20"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
-      <c r="AQ38" s="101"/>
-      <c r="AR38" s="101"/>
-      <c r="AS38" s="101"/>
-      <c r="AT38" s="101"/>
-      <c r="AU38" s="101"/>
-      <c r="AV38" s="101"/>
-      <c r="AW38" s="101"/>
-      <c r="AX38" s="101"/>
-      <c r="AY38" s="101"/>
-      <c r="AZ38" s="101"/>
-      <c r="BA38" s="101"/>
-      <c r="BB38" s="101"/>
-      <c r="BC38" s="101"/>
-      <c r="BD38" s="101"/>
-      <c r="BE38" s="101"/>
-      <c r="BF38" s="101"/>
-      <c r="BG38" s="101"/>
-      <c r="BH38" s="101"/>
-      <c r="BI38" s="101"/>
-      <c r="BJ38" s="101"/>
-      <c r="BK38" s="101"/>
-      <c r="BL38" s="101"/>
-      <c r="BM38" s="101"/>
-      <c r="BN38" s="101"/>
-      <c r="BO38" s="101"/>
-      <c r="BP38" s="102"/>
-      <c r="BQ38" s="108"/>
-      <c r="BR38" s="101"/>
-      <c r="BS38" s="101"/>
-      <c r="BT38" s="101"/>
-      <c r="BU38" s="101"/>
-      <c r="BV38" s="101"/>
-      <c r="BW38" s="101"/>
-      <c r="BX38" s="101"/>
-      <c r="BY38" s="101"/>
-      <c r="BZ38" s="101"/>
-      <c r="CA38" s="101"/>
-      <c r="CB38" s="101"/>
-      <c r="CC38" s="101"/>
-      <c r="CD38" s="101"/>
-      <c r="CE38" s="101"/>
-      <c r="CF38" s="101"/>
-      <c r="CG38" s="101"/>
-      <c r="CH38" s="101"/>
-      <c r="CI38" s="101"/>
-      <c r="CJ38" s="101"/>
-      <c r="CK38" s="101"/>
-      <c r="CL38" s="101"/>
-      <c r="CM38" s="101"/>
-      <c r="CN38" s="101"/>
-      <c r="CO38" s="101"/>
-      <c r="CP38" s="101"/>
-      <c r="CQ38" s="101"/>
-      <c r="CR38" s="101"/>
-      <c r="CS38" s="101"/>
-      <c r="CT38" s="102"/>
-      <c r="CU38" s="108"/>
-      <c r="CV38" s="102"/>
-    </row>
-    <row r="39" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="86"/>
-      <c r="B39" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="66" t="s">
-        <v>101</v>
-      </c>
+      <c r="AQ38" s="66"/>
+      <c r="AR38" s="66"/>
+      <c r="AS38" s="66"/>
+      <c r="AT38" s="66"/>
+      <c r="AU38" s="66"/>
+      <c r="AV38" s="66"/>
+      <c r="AW38" s="66"/>
+      <c r="AX38" s="66"/>
+      <c r="AY38" s="66"/>
+      <c r="AZ38" s="66"/>
+      <c r="BA38" s="66"/>
+      <c r="BB38" s="66"/>
+      <c r="BC38" s="66"/>
+      <c r="BD38" s="66"/>
+      <c r="BE38" s="66"/>
+      <c r="BF38" s="66"/>
+      <c r="BG38" s="66"/>
+      <c r="BH38" s="66"/>
+      <c r="BI38" s="66"/>
+      <c r="BJ38" s="66"/>
+      <c r="BK38" s="66"/>
+      <c r="BL38" s="66"/>
+      <c r="BM38" s="66"/>
+      <c r="BN38" s="66"/>
+      <c r="BO38" s="66"/>
+      <c r="BP38" s="67"/>
+      <c r="BQ38" s="73"/>
+      <c r="BR38" s="66"/>
+      <c r="BS38" s="66"/>
+      <c r="BT38" s="66"/>
+      <c r="BU38" s="66"/>
+      <c r="BV38" s="66"/>
+      <c r="BW38" s="66"/>
+      <c r="BX38" s="66"/>
+      <c r="BY38" s="66"/>
+      <c r="BZ38" s="66"/>
+      <c r="CA38" s="66"/>
+      <c r="CB38" s="66"/>
+      <c r="CC38" s="66"/>
+      <c r="CD38" s="66"/>
+      <c r="CE38" s="66"/>
+      <c r="CF38" s="66"/>
+      <c r="CG38" s="66"/>
+      <c r="CH38" s="66"/>
+      <c r="CI38" s="66"/>
+      <c r="CJ38" s="66"/>
+      <c r="CK38" s="66"/>
+      <c r="CL38" s="66"/>
+      <c r="CM38" s="66"/>
+      <c r="CN38" s="66"/>
+      <c r="CO38" s="66"/>
+      <c r="CP38" s="66"/>
+      <c r="CQ38" s="66"/>
+      <c r="CR38" s="66"/>
+      <c r="CS38" s="66"/>
+      <c r="CT38" s="67"/>
+      <c r="CU38" s="73"/>
+      <c r="CV38" s="67"/>
+    </row>
+    <row r="39" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="114"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="111"/>
       <c r="E39" s="40">
-        <v>44476</v>
+        <v>44501</v>
       </c>
       <c r="F39" s="40">
-        <v>44480</v>
+        <v>44507</v>
       </c>
       <c r="G39" s="57">
         <v>0</v>
       </c>
-      <c r="H39" s="47"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50"/>
-      <c r="AH39" s="50"/>
-      <c r="AI39" s="50"/>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="48"/>
-      <c r="AO39" s="48"/>
-      <c r="AP39" s="48"/>
-      <c r="AQ39" s="50"/>
-      <c r="AR39" s="50"/>
-      <c r="AS39" s="50"/>
-      <c r="AT39" s="50"/>
-      <c r="AU39" s="50"/>
-      <c r="AV39" s="50"/>
-      <c r="AW39" s="50"/>
-      <c r="AX39" s="50"/>
-      <c r="AY39" s="50"/>
-      <c r="AZ39" s="50"/>
-      <c r="BA39" s="50"/>
-      <c r="BB39" s="50"/>
-      <c r="BC39" s="50"/>
-      <c r="BD39" s="50"/>
-      <c r="BE39" s="50"/>
-      <c r="BF39" s="50"/>
-      <c r="BG39" s="50"/>
-      <c r="BH39" s="50"/>
-      <c r="BI39" s="50"/>
-      <c r="BJ39" s="50"/>
-      <c r="BK39" s="50"/>
-      <c r="BL39" s="50"/>
-      <c r="BM39" s="50"/>
-      <c r="BN39" s="50"/>
-      <c r="BO39" s="50"/>
-      <c r="BP39" s="51"/>
-      <c r="BQ39" s="110"/>
-      <c r="BR39" s="50"/>
-      <c r="BS39" s="50"/>
-      <c r="BT39" s="50"/>
-      <c r="BU39" s="50"/>
-      <c r="BV39" s="50"/>
-      <c r="BW39" s="50"/>
-      <c r="BX39" s="50"/>
-      <c r="BY39" s="50"/>
-      <c r="BZ39" s="50"/>
-      <c r="CA39" s="50"/>
-      <c r="CB39" s="50"/>
-      <c r="CC39" s="50"/>
-      <c r="CD39" s="50"/>
-      <c r="CE39" s="50"/>
-      <c r="CF39" s="50"/>
-      <c r="CG39" s="50"/>
-      <c r="CH39" s="50"/>
-      <c r="CI39" s="50"/>
-      <c r="CJ39" s="50"/>
-      <c r="CK39" s="50"/>
-      <c r="CL39" s="50"/>
-      <c r="CM39" s="50"/>
-      <c r="CN39" s="50"/>
-      <c r="CO39" s="50"/>
-      <c r="CP39" s="50"/>
-      <c r="CQ39" s="50"/>
-      <c r="CR39" s="50"/>
-      <c r="CS39" s="50"/>
-      <c r="CT39" s="51"/>
-      <c r="CU39" s="110"/>
-      <c r="CV39" s="51"/>
-    </row>
-    <row r="40" spans="1:100" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="87"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="46" t="s">
+      <c r="H39" s="20"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="66"/>
+      <c r="AD39" s="66"/>
+      <c r="AE39" s="66"/>
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="66"/>
+      <c r="AL39" s="67"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="66"/>
+      <c r="AR39" s="66"/>
+      <c r="AS39" s="66"/>
+      <c r="AT39" s="66"/>
+      <c r="AU39" s="66"/>
+      <c r="AV39" s="66"/>
+      <c r="AW39" s="66"/>
+      <c r="AX39" s="66"/>
+      <c r="AY39" s="66"/>
+      <c r="AZ39" s="66"/>
+      <c r="BA39" s="66"/>
+      <c r="BB39" s="66"/>
+      <c r="BC39" s="66"/>
+      <c r="BD39" s="66"/>
+      <c r="BE39" s="66"/>
+      <c r="BF39" s="66"/>
+      <c r="BG39" s="66"/>
+      <c r="BH39" s="66"/>
+      <c r="BI39" s="66"/>
+      <c r="BJ39" s="66"/>
+      <c r="BK39" s="66"/>
+      <c r="BL39" s="66"/>
+      <c r="BM39" s="66"/>
+      <c r="BN39" s="66"/>
+      <c r="BO39" s="66"/>
+      <c r="BP39" s="67"/>
+      <c r="BQ39" s="73"/>
+      <c r="BR39" s="66"/>
+      <c r="BS39" s="66"/>
+      <c r="BT39" s="66"/>
+      <c r="BU39" s="66"/>
+      <c r="BV39" s="66"/>
+      <c r="BW39" s="66"/>
+      <c r="BX39" s="66"/>
+      <c r="BY39" s="66"/>
+      <c r="BZ39" s="66"/>
+      <c r="CA39" s="66"/>
+      <c r="CB39" s="66"/>
+      <c r="CC39" s="66"/>
+      <c r="CD39" s="66"/>
+      <c r="CE39" s="66"/>
+      <c r="CF39" s="66"/>
+      <c r="CG39" s="66"/>
+      <c r="CH39" s="66"/>
+      <c r="CI39" s="66"/>
+      <c r="CJ39" s="66"/>
+      <c r="CK39" s="66"/>
+      <c r="CL39" s="66"/>
+      <c r="CM39" s="66"/>
+      <c r="CN39" s="66"/>
+      <c r="CO39" s="66"/>
+      <c r="CP39" s="66"/>
+      <c r="CQ39" s="66"/>
+      <c r="CR39" s="66"/>
+      <c r="CS39" s="66"/>
+      <c r="CT39" s="67"/>
+      <c r="CU39" s="73"/>
+      <c r="CV39" s="67"/>
+    </row>
+    <row r="40" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="114"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="111"/>
+      <c r="E40" s="40">
+        <v>44507</v>
+      </c>
+      <c r="F40" s="40">
+        <v>44515</v>
+      </c>
+      <c r="G40" s="57">
+        <v>0</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="66"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="66"/>
+      <c r="AK40" s="66"/>
+      <c r="AL40" s="67"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="66"/>
+      <c r="AR40" s="66"/>
+      <c r="AS40" s="66"/>
+      <c r="AT40" s="66"/>
+      <c r="AU40" s="66"/>
+      <c r="AV40" s="66"/>
+      <c r="AW40" s="66"/>
+      <c r="AX40" s="66"/>
+      <c r="AY40" s="66"/>
+      <c r="AZ40" s="66"/>
+      <c r="BA40" s="66"/>
+      <c r="BB40" s="66"/>
+      <c r="BC40" s="66"/>
+      <c r="BD40" s="66"/>
+      <c r="BE40" s="66"/>
+      <c r="BF40" s="66"/>
+      <c r="BG40" s="66"/>
+      <c r="BH40" s="66"/>
+      <c r="BI40" s="66"/>
+      <c r="BJ40" s="66"/>
+      <c r="BK40" s="66"/>
+      <c r="BL40" s="66"/>
+      <c r="BM40" s="66"/>
+      <c r="BN40" s="66"/>
+      <c r="BO40" s="66"/>
+      <c r="BP40" s="67"/>
+      <c r="BQ40" s="73"/>
+      <c r="BR40" s="66"/>
+      <c r="BS40" s="66"/>
+      <c r="BT40" s="66"/>
+      <c r="BU40" s="66"/>
+      <c r="BV40" s="66"/>
+      <c r="BW40" s="66"/>
+      <c r="BX40" s="66"/>
+      <c r="BY40" s="66"/>
+      <c r="BZ40" s="66"/>
+      <c r="CA40" s="66"/>
+      <c r="CB40" s="66"/>
+      <c r="CC40" s="66"/>
+      <c r="CD40" s="66"/>
+      <c r="CE40" s="66"/>
+      <c r="CF40" s="66"/>
+      <c r="CG40" s="66"/>
+      <c r="CH40" s="66"/>
+      <c r="CI40" s="66"/>
+      <c r="CJ40" s="66"/>
+      <c r="CK40" s="66"/>
+      <c r="CL40" s="66"/>
+      <c r="CM40" s="66"/>
+      <c r="CN40" s="66"/>
+      <c r="CO40" s="66"/>
+      <c r="CP40" s="66"/>
+      <c r="CQ40" s="66"/>
+      <c r="CR40" s="66"/>
+      <c r="CS40" s="66"/>
+      <c r="CT40" s="67"/>
+      <c r="CU40" s="73"/>
+      <c r="CV40" s="67"/>
+    </row>
+    <row r="41" spans="1:100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="115"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="112"/>
+      <c r="E41" s="40">
+        <v>44515</v>
+      </c>
+      <c r="F41" s="40">
+        <v>44521</v>
+      </c>
+      <c r="G41" s="57">
+        <v>0</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="66"/>
+      <c r="AD41" s="66"/>
+      <c r="AE41" s="66"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="66"/>
+      <c r="AK41" s="66"/>
+      <c r="AL41" s="67"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="66"/>
+      <c r="AR41" s="66"/>
+      <c r="AS41" s="66"/>
+      <c r="AT41" s="66"/>
+      <c r="AU41" s="66"/>
+      <c r="AV41" s="66"/>
+      <c r="AW41" s="66"/>
+      <c r="AX41" s="66"/>
+      <c r="AY41" s="66"/>
+      <c r="AZ41" s="66"/>
+      <c r="BA41" s="66"/>
+      <c r="BB41" s="66"/>
+      <c r="BC41" s="66"/>
+      <c r="BD41" s="66"/>
+      <c r="BE41" s="66"/>
+      <c r="BF41" s="66"/>
+      <c r="BG41" s="66"/>
+      <c r="BH41" s="66"/>
+      <c r="BI41" s="66"/>
+      <c r="BJ41" s="66"/>
+      <c r="BK41" s="66"/>
+      <c r="BL41" s="66"/>
+      <c r="BM41" s="66"/>
+      <c r="BN41" s="66"/>
+      <c r="BO41" s="66"/>
+      <c r="BP41" s="67"/>
+      <c r="BQ41" s="73"/>
+      <c r="BR41" s="66"/>
+      <c r="BS41" s="66"/>
+      <c r="BT41" s="66"/>
+      <c r="BU41" s="66"/>
+      <c r="BV41" s="66"/>
+      <c r="BW41" s="66"/>
+      <c r="BX41" s="66"/>
+      <c r="BY41" s="66"/>
+      <c r="BZ41" s="66"/>
+      <c r="CA41" s="66"/>
+      <c r="CB41" s="66"/>
+      <c r="CC41" s="66"/>
+      <c r="CD41" s="66"/>
+      <c r="CE41" s="66"/>
+      <c r="CF41" s="66"/>
+      <c r="CG41" s="66"/>
+      <c r="CH41" s="66"/>
+      <c r="CI41" s="66"/>
+      <c r="CJ41" s="66"/>
+      <c r="CK41" s="66"/>
+      <c r="CL41" s="66"/>
+      <c r="CM41" s="66"/>
+      <c r="CN41" s="66"/>
+      <c r="CO41" s="66"/>
+      <c r="CP41" s="66"/>
+      <c r="CQ41" s="66"/>
+      <c r="CR41" s="66"/>
+      <c r="CS41" s="66"/>
+      <c r="CT41" s="67"/>
+      <c r="CU41" s="73"/>
+      <c r="CV41" s="67"/>
+    </row>
+    <row r="42" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="40">
+        <v>44521</v>
+      </c>
+      <c r="F42" s="40">
+        <v>44527</v>
+      </c>
+      <c r="G42" s="57">
+        <v>0</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="66"/>
+      <c r="AA42" s="66"/>
+      <c r="AB42" s="66"/>
+      <c r="AC42" s="66"/>
+      <c r="AD42" s="66"/>
+      <c r="AE42" s="66"/>
+      <c r="AF42" s="66"/>
+      <c r="AG42" s="66"/>
+      <c r="AH42" s="66"/>
+      <c r="AI42" s="66"/>
+      <c r="AJ42" s="66"/>
+      <c r="AK42" s="66"/>
+      <c r="AL42" s="67"/>
+      <c r="AM42" s="20"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="66"/>
+      <c r="AR42" s="66"/>
+      <c r="AS42" s="66"/>
+      <c r="AT42" s="66"/>
+      <c r="AU42" s="66"/>
+      <c r="AV42" s="66"/>
+      <c r="AW42" s="66"/>
+      <c r="AX42" s="66"/>
+      <c r="AY42" s="66"/>
+      <c r="AZ42" s="66"/>
+      <c r="BA42" s="66"/>
+      <c r="BB42" s="66"/>
+      <c r="BC42" s="66"/>
+      <c r="BD42" s="66"/>
+      <c r="BE42" s="66"/>
+      <c r="BF42" s="66"/>
+      <c r="BG42" s="66"/>
+      <c r="BH42" s="66"/>
+      <c r="BI42" s="66"/>
+      <c r="BJ42" s="66"/>
+      <c r="BK42" s="66"/>
+      <c r="BL42" s="66"/>
+      <c r="BM42" s="66"/>
+      <c r="BN42" s="66"/>
+      <c r="BO42" s="66"/>
+      <c r="BP42" s="67"/>
+      <c r="BQ42" s="73"/>
+      <c r="BR42" s="66"/>
+      <c r="BS42" s="66"/>
+      <c r="BT42" s="66"/>
+      <c r="BU42" s="66"/>
+      <c r="BV42" s="66"/>
+      <c r="BW42" s="66"/>
+      <c r="BX42" s="66"/>
+      <c r="BY42" s="66"/>
+      <c r="BZ42" s="66"/>
+      <c r="CA42" s="66"/>
+      <c r="CB42" s="66"/>
+      <c r="CC42" s="66"/>
+      <c r="CD42" s="66"/>
+      <c r="CE42" s="66"/>
+      <c r="CF42" s="66"/>
+      <c r="CG42" s="66"/>
+      <c r="CH42" s="66"/>
+      <c r="CI42" s="66"/>
+      <c r="CJ42" s="66"/>
+      <c r="CK42" s="66"/>
+      <c r="CL42" s="66"/>
+      <c r="CM42" s="66"/>
+      <c r="CN42" s="66"/>
+      <c r="CO42" s="66"/>
+      <c r="CP42" s="66"/>
+      <c r="CQ42" s="66"/>
+      <c r="CR42" s="66"/>
+      <c r="CS42" s="66"/>
+      <c r="CT42" s="67"/>
+      <c r="CU42" s="73"/>
+      <c r="CV42" s="67"/>
+    </row>
+    <row r="43" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="106"/>
+      <c r="B43" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="40">
+        <v>44476</v>
+      </c>
+      <c r="F43" s="40">
+        <v>44480</v>
+      </c>
+      <c r="G43" s="57">
+        <v>0</v>
+      </c>
+      <c r="H43" s="47"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="50"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="50"/>
+      <c r="AD43" s="50"/>
+      <c r="AE43" s="50"/>
+      <c r="AF43" s="50"/>
+      <c r="AG43" s="50"/>
+      <c r="AH43" s="50"/>
+      <c r="AI43" s="50"/>
+      <c r="AJ43" s="50"/>
+      <c r="AK43" s="50"/>
+      <c r="AL43" s="51"/>
+      <c r="AM43" s="47"/>
+      <c r="AN43" s="48"/>
+      <c r="AO43" s="48"/>
+      <c r="AP43" s="48"/>
+      <c r="AQ43" s="50"/>
+      <c r="AR43" s="50"/>
+      <c r="AS43" s="50"/>
+      <c r="AT43" s="50"/>
+      <c r="AU43" s="50"/>
+      <c r="AV43" s="50"/>
+      <c r="AW43" s="50"/>
+      <c r="AX43" s="50"/>
+      <c r="AY43" s="50"/>
+      <c r="AZ43" s="50"/>
+      <c r="BA43" s="50"/>
+      <c r="BB43" s="50"/>
+      <c r="BC43" s="50"/>
+      <c r="BD43" s="50"/>
+      <c r="BE43" s="50"/>
+      <c r="BF43" s="50"/>
+      <c r="BG43" s="50"/>
+      <c r="BH43" s="50"/>
+      <c r="BI43" s="50"/>
+      <c r="BJ43" s="50"/>
+      <c r="BK43" s="50"/>
+      <c r="BL43" s="50"/>
+      <c r="BM43" s="50"/>
+      <c r="BN43" s="50"/>
+      <c r="BO43" s="50"/>
+      <c r="BP43" s="51"/>
+      <c r="BQ43" s="75"/>
+      <c r="BR43" s="50"/>
+      <c r="BS43" s="50"/>
+      <c r="BT43" s="50"/>
+      <c r="BU43" s="50"/>
+      <c r="BV43" s="50"/>
+      <c r="BW43" s="50"/>
+      <c r="BX43" s="50"/>
+      <c r="BY43" s="50"/>
+      <c r="BZ43" s="50"/>
+      <c r="CA43" s="50"/>
+      <c r="CB43" s="50"/>
+      <c r="CC43" s="50"/>
+      <c r="CD43" s="50"/>
+      <c r="CE43" s="50"/>
+      <c r="CF43" s="50"/>
+      <c r="CG43" s="50"/>
+      <c r="CH43" s="50"/>
+      <c r="CI43" s="50"/>
+      <c r="CJ43" s="50"/>
+      <c r="CK43" s="50"/>
+      <c r="CL43" s="50"/>
+      <c r="CM43" s="50"/>
+      <c r="CN43" s="50"/>
+      <c r="CO43" s="50"/>
+      <c r="CP43" s="50"/>
+      <c r="CQ43" s="50"/>
+      <c r="CR43" s="50"/>
+      <c r="CS43" s="50"/>
+      <c r="CT43" s="51"/>
+      <c r="CU43" s="75"/>
+      <c r="CV43" s="51"/>
+    </row>
+    <row r="44" spans="1:100" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="107"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="116"/>
-      <c r="E40" s="114">
+      <c r="D44" s="109"/>
+      <c r="E44" s="79">
         <v>44532</v>
       </c>
-      <c r="F40" s="114">
+      <c r="F44" s="79">
         <v>44536</v>
       </c>
-      <c r="G40" s="115">
+      <c r="G44" s="80">
         <v>0</v>
       </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="105"/>
-      <c r="S40" s="105"/>
-      <c r="T40" s="105"/>
-      <c r="U40" s="105"/>
-      <c r="V40" s="105"/>
-      <c r="W40" s="105"/>
-      <c r="X40" s="105"/>
-      <c r="Y40" s="105"/>
-      <c r="Z40" s="105"/>
-      <c r="AA40" s="105"/>
-      <c r="AB40" s="105"/>
-      <c r="AC40" s="105"/>
-      <c r="AD40" s="105"/>
-      <c r="AE40" s="105"/>
-      <c r="AF40" s="105"/>
-      <c r="AG40" s="105"/>
-      <c r="AH40" s="105"/>
-      <c r="AI40" s="105"/>
-      <c r="AJ40" s="105"/>
-      <c r="AK40" s="105"/>
-      <c r="AL40" s="106"/>
-      <c r="AM40" s="22"/>
-      <c r="AN40" s="23"/>
-      <c r="AO40" s="23"/>
-      <c r="AP40" s="23"/>
-      <c r="AQ40" s="105"/>
-      <c r="AR40" s="105"/>
-      <c r="AS40" s="105"/>
-      <c r="AT40" s="105"/>
-      <c r="AU40" s="105"/>
-      <c r="AV40" s="105"/>
-      <c r="AW40" s="105"/>
-      <c r="AX40" s="105"/>
-      <c r="AY40" s="105"/>
-      <c r="AZ40" s="105"/>
-      <c r="BA40" s="105"/>
-      <c r="BB40" s="105"/>
-      <c r="BC40" s="105"/>
-      <c r="BD40" s="105"/>
-      <c r="BE40" s="105"/>
-      <c r="BF40" s="105"/>
-      <c r="BG40" s="105"/>
-      <c r="BH40" s="105"/>
-      <c r="BI40" s="105"/>
-      <c r="BJ40" s="105"/>
-      <c r="BK40" s="105"/>
-      <c r="BL40" s="105"/>
-      <c r="BM40" s="105"/>
-      <c r="BN40" s="105"/>
-      <c r="BO40" s="105"/>
-      <c r="BP40" s="106"/>
-      <c r="BQ40" s="111"/>
-      <c r="BR40" s="105"/>
-      <c r="BS40" s="105"/>
-      <c r="BT40" s="105"/>
-      <c r="BU40" s="105"/>
-      <c r="BV40" s="105"/>
-      <c r="BW40" s="105"/>
-      <c r="BX40" s="105"/>
-      <c r="BY40" s="105"/>
-      <c r="BZ40" s="105"/>
-      <c r="CA40" s="105"/>
-      <c r="CB40" s="105"/>
-      <c r="CC40" s="105"/>
-      <c r="CD40" s="105"/>
-      <c r="CE40" s="105"/>
-      <c r="CF40" s="105"/>
-      <c r="CG40" s="105"/>
-      <c r="CH40" s="105"/>
-      <c r="CI40" s="105"/>
-      <c r="CJ40" s="105"/>
-      <c r="CK40" s="105"/>
-      <c r="CL40" s="105"/>
-      <c r="CM40" s="105"/>
-      <c r="CN40" s="105"/>
-      <c r="CO40" s="105"/>
-      <c r="CP40" s="105"/>
-      <c r="CQ40" s="105"/>
-      <c r="CR40" s="105"/>
-      <c r="CS40" s="105"/>
-      <c r="CT40" s="106"/>
-      <c r="CU40" s="111"/>
-      <c r="CV40" s="106"/>
-    </row>
-    <row r="41" spans="1:100" ht="14.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="70"/>
+      <c r="S44" s="70"/>
+      <c r="T44" s="70"/>
+      <c r="U44" s="70"/>
+      <c r="V44" s="70"/>
+      <c r="W44" s="70"/>
+      <c r="X44" s="70"/>
+      <c r="Y44" s="70"/>
+      <c r="Z44" s="70"/>
+      <c r="AA44" s="70"/>
+      <c r="AB44" s="70"/>
+      <c r="AC44" s="70"/>
+      <c r="AD44" s="70"/>
+      <c r="AE44" s="70"/>
+      <c r="AF44" s="70"/>
+      <c r="AG44" s="70"/>
+      <c r="AH44" s="70"/>
+      <c r="AI44" s="70"/>
+      <c r="AJ44" s="70"/>
+      <c r="AK44" s="70"/>
+      <c r="AL44" s="71"/>
+      <c r="AM44" s="22"/>
+      <c r="AN44" s="23"/>
+      <c r="AO44" s="23"/>
+      <c r="AP44" s="23"/>
+      <c r="AQ44" s="70"/>
+      <c r="AR44" s="70"/>
+      <c r="AS44" s="70"/>
+      <c r="AT44" s="70"/>
+      <c r="AU44" s="70"/>
+      <c r="AV44" s="70"/>
+      <c r="AW44" s="70"/>
+      <c r="AX44" s="70"/>
+      <c r="AY44" s="70"/>
+      <c r="AZ44" s="70"/>
+      <c r="BA44" s="70"/>
+      <c r="BB44" s="70"/>
+      <c r="BC44" s="70"/>
+      <c r="BD44" s="70"/>
+      <c r="BE44" s="70"/>
+      <c r="BF44" s="70"/>
+      <c r="BG44" s="70"/>
+      <c r="BH44" s="70"/>
+      <c r="BI44" s="70"/>
+      <c r="BJ44" s="70"/>
+      <c r="BK44" s="70"/>
+      <c r="BL44" s="70"/>
+      <c r="BM44" s="70"/>
+      <c r="BN44" s="70"/>
+      <c r="BO44" s="70"/>
+      <c r="BP44" s="71"/>
+      <c r="BQ44" s="76"/>
+      <c r="BR44" s="70"/>
+      <c r="BS44" s="70"/>
+      <c r="BT44" s="70"/>
+      <c r="BU44" s="70"/>
+      <c r="BV44" s="70"/>
+      <c r="BW44" s="70"/>
+      <c r="BX44" s="70"/>
+      <c r="BY44" s="70"/>
+      <c r="BZ44" s="70"/>
+      <c r="CA44" s="70"/>
+      <c r="CB44" s="70"/>
+      <c r="CC44" s="70"/>
+      <c r="CD44" s="70"/>
+      <c r="CE44" s="70"/>
+      <c r="CF44" s="70"/>
+      <c r="CG44" s="70"/>
+      <c r="CH44" s="70"/>
+      <c r="CI44" s="70"/>
+      <c r="CJ44" s="70"/>
+      <c r="CK44" s="70"/>
+      <c r="CL44" s="70"/>
+      <c r="CM44" s="70"/>
+      <c r="CN44" s="70"/>
+      <c r="CO44" s="70"/>
+      <c r="CP44" s="70"/>
+      <c r="CQ44" s="70"/>
+      <c r="CR44" s="70"/>
+      <c r="CS44" s="70"/>
+      <c r="CT44" s="71"/>
+      <c r="CU44" s="76"/>
+      <c r="CV44" s="71"/>
+    </row>
+    <row r="45" spans="1:100" ht="14.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E3:E4"/>
@@ -6237,34 +6729,35 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A36:A41"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A12:A31"/>
+    <mergeCell ref="A12:A35"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6272,7 +6765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
@@ -6309,72 +6802,72 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97" t="s">
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="97" t="s">
+      <c r="L3" s="121" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="97" t="s">
+      <c r="I4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="97" t="s">
+      <c r="J4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="97"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -7237,7 +7730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -7248,50 +7741,50 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="122" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="99"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7309,7 +7802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
